--- a/부동산 강의/[강의자료]사업-성패를-예측하는-타당성-분석-실무와-모델링-online---실습용-엑셀---진도순/10-5. [RI, EVA] FCF, EVA, RI_v8.xlsx
+++ b/부동산 강의/[강의자료]사업-성패를-예측하는-타당성-분석-실무와-모델링-online---실습용-엑셀---진도순/10-5. [RI, EVA] FCF, EVA, RI_v8.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65a7318a0aba533e/01. Work/21. Lecture/13. M^0A^J FS^J Valuation^J IPO/2021.09 FS_패캠/21. 실습용 엑셀/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwchae23\QuantifyPro\workplace\부동산 강의\[강의자료]사업-성패를-예측하는-타당성-분석-실무와-모델링-online---실습용-엑셀---진도순\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_2D17E2630A829A03D784CDD9D137910981D21D8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A934327-D97A-4B27-9AB2-7607C7FE3163}"/>
   <bookViews>
-    <workbookView xWindow="12156" yWindow="3912" windowWidth="13740" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="12516" yWindow="4272" windowWidth="13740" windowHeight="10008" xr2:uid="{F917E619-F2D5-4DF2-B277-DF7B960602BD}"/>
+    <workbookView xWindow="12150" yWindow="3915" windowWidth="13740" windowHeight="10005"/>
+    <workbookView xWindow="12510" yWindow="4275" windowWidth="13740" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Modeling" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Modeling!$A$1:$L$232</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="300" iterateDelta="9.9999999999999995E-7"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,8 +34,1127 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>다.채동우</author>
+  </authors>
+  <commentList>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채동우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Firm Value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채동우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형자산처분이익</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채동우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반영된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형자산처분이익은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>영업활동을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>통해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>얻은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이익이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니므로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제외해야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채동우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유형자산처분으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현금</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유입은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>투자활동에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발생한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이므로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>옮겨줘야</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E143" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채동우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채권자에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지급한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>금액</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이자비용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>절세효과가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있으므로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반영</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D144" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채동우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>차입자로부터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조달한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>금액이므로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주주에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지급</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능
+순차입금이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>감소하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>걸</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채권자에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원금을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계속</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상환하고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
   <si>
     <t>Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,19 +2323,27 @@
     <t>NOPAT이후 NOPAT에 빠져 있었던</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>세금효과를 할인율에서 고려하는지? 현금흐름에서 고려하는지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,467 : PPT 자료에서 본 +a를 의미함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="&quot;Year&quot;\ #,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\);\-_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,8 +2441,72 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +2528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +2590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1416,9 +2612,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1434,34 +2627,34 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1500,7 +2693,7 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1593,7 +2786,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1609,6 +2802,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3063,8 +4277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3147702" y="745435"/>
-          <a:ext cx="2518452" cy="4886712"/>
+          <a:off x="3169810" y="698288"/>
+          <a:ext cx="2519727" cy="4541072"/>
           <a:chOff x="3151346" y="11063246"/>
           <a:chExt cx="2509176" cy="4941709"/>
         </a:xfrm>
@@ -4367,6 +5581,73 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297657</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893095" y="25086469"/>
+          <a:ext cx="297656" cy="154781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4446,23 +5727,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4498,23 +5762,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4690,861 +5937,861 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N284"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O284"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="1">
       <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="1.59765625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="9.09765625" style="5" customWidth="1"/>
-    <col min="8" max="12" width="9.09765625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="0.8984375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="41.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="1.625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="9.125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="9.125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="0.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="41.75" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C2" s="8"/>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="40" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>400000</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <f>H5+I14</f>
         <v>300000</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f>I5+J14</f>
         <v>200000</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <f>J5+K14</f>
         <v>100000</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <f>K5+L14</f>
         <v>0</v>
       </c>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>H238</f>
         <v>284233.25404779252</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" ref="I6:L6" si="0">I238</f>
         <v>229841.24453352764</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
         <v>160172.19387755101</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
         <v>82142.85714285713</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
+    <row r="7" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="14">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="13">
         <f>H5-H6</f>
         <v>115766.74595220748</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <f>I5-I6</f>
         <v>70158.755466472358</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f>J5-J6</f>
         <v>39827.806122448994</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f>K5-K6</f>
         <v>17857.14285714287</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <f>L5-L6</f>
         <v>0</v>
       </c>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" s="65" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="65" t="s">
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="65">
         <f>H243</f>
         <v>568466.50809558504</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="65">
         <f>I243</f>
         <v>459682.48906705528</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="65">
         <f>J243</f>
         <v>320344.38775510201</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="65">
         <f>K243</f>
         <v>164285.71428571426</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="N8" s="66"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="42" t="s">
+      <c r="L8" s="65"/>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="8" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
         <v>400000</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>450000</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>450000</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>400000</v>
       </c>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C11" s="9" t="s">
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
         <v>-150000</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>-175000</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>-175000</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>-150000</v>
       </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C12" s="47" t="s">
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
         <v>-40000</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>-40000</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>-40000</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>-40000</v>
       </c>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C13" s="8" t="s">
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
         <f>I10+I11+I12</f>
         <v>210000</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <f>J10+J11+J12</f>
         <v>235000</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <f>K10+K11+K12</f>
         <v>235000</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <f>L10+L11+L12</f>
         <v>210000</v>
       </c>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C14" s="47" t="s">
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
         <v>-100000</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>-100000</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>-100000</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>-100000</v>
       </c>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C15" s="8" t="s">
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
         <f>I13+I14</f>
         <v>110000</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <f>J13+J14</f>
         <v>135000</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <f>K13+K14</f>
         <v>135000</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <f>L13+L14</f>
         <v>110000</v>
       </c>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
         <f>H6*-0.06</f>
         <v>-17053.99524286755</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f>I6*-0.06</f>
         <v>-13790.474672011658</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <f>J6*-0.06</f>
         <v>-9610.3316326530603</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f>K6*-0.06</f>
         <v>-4928.5714285714275</v>
       </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C17" s="47" t="s">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17">
+      <c r="G17" s="46"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
         <f>-(I15+I16)*0.3</f>
         <v>-27883.801427139737</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <f>-(J15+J16)*0.3</f>
         <v>-36362.857598396506</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <f>-(K15+K16)*0.3</f>
         <v>-37616.900510204083</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="16">
         <f>-(L15+L16)*0.3</f>
         <v>-31521.428571428572</v>
       </c>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
         <f>I15+I16+I17</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f>J15+J16+J17</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <f>K15+K16+K17</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <f>L15+L16+L17</f>
         <v>73550</v>
       </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>0</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>0</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>7000</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C20" s="47" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
         <v>0</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>0</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="16">
         <v>0</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="16">
         <v>0</v>
       </c>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="50" t="s">
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17">
         <f>SUM(I18:I20)</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <f>SUM(J18:J20)</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <f>SUM(K18:K20)</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="17">
         <f>SUM(L18:L20)</f>
         <v>80550</v>
       </c>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="42" t="s">
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="51" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="19">
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="18">
         <v>0</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <f>SUM(I25:I28)</f>
         <v>165062.20332999271</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <f t="shared" ref="J24:L24" si="1">SUM(J25:J28)</f>
         <v>184846.66772959183</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="18">
         <f t="shared" si="1"/>
         <v>187772.76785714284</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <f t="shared" si="1"/>
         <v>173550</v>
       </c>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <f>I21</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <f>J21</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <f>K21</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <f>L21</f>
         <v>80550</v>
       </c>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D26" s="9" t="s">
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>0</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="12">
         <f>-I14</f>
         <v>100000</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <f>-J14</f>
         <v>100000</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <f>-K14</f>
         <v>100000</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <f>-L14</f>
         <v>100000</v>
       </c>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>0</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>0</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <v>0</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <v>0</v>
       </c>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="45"/>
-      <c r="D28" s="45" t="s">
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="44"/>
+      <c r="D28" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="20">
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="19">
         <v>0</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>0</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="19">
         <v>0</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>0</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <f>-L19</f>
         <v>-7000</v>
       </c>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C29" s="52" t="s">
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="21">
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="20">
         <f>SUM(H30:H32)</f>
         <v>400000</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <f t="shared" ref="I29:L29" si="2">SUM(I30:I32)</f>
         <v>-165062.20332999271</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="20">
         <f t="shared" si="2"/>
         <v>-184846.66772959183</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <f t="shared" si="2"/>
         <v>-187772.76785714287</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <f t="shared" si="2"/>
         <v>-180550</v>
       </c>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C30" s="8"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
       <c r="D30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <f>H5</f>
         <v>400000</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>0</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>0</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <v>0</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <v>0</v>
       </c>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <v>0</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <f>I6-H6</f>
         <v>-54392.009514264879</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <f>J6-I6</f>
         <v>-69669.050655976636</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="12">
         <f>K6-J6</f>
         <v>-78029.336734693876</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <f>L6-K6</f>
         <v>-82142.85714285713</v>
       </c>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="2:14" ht="14.4" x14ac:dyDescent="0.4">
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="2:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="D32" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>0</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <f>-I145</f>
         <v>-110670.19381572783</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <f>-J145</f>
         <v>-115177.6170736152</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <f>-K145</f>
         <v>-109743.43112244899</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="12">
         <f>-L145</f>
         <v>-98407.14285714287</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <f>H7+I21-I7</f>
         <v>110670.19381572783</v>
       </c>
     </row>
-    <row r="33" spans="3:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="52" t="s">
+    <row r="33" spans="3:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="21">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="20">
         <f>SUM(H34)</f>
         <v>-400000</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <f t="shared" ref="I33:L33" si="3">SUM(I34)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="20">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C34" s="8"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
       <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>-400000</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>0</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>0</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <v>0</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="12">
         <f>-L28</f>
         <v>7000</v>
       </c>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="3:14" s="8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="50" t="s">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="3:14" s="7" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="18">
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="17">
         <f>ROUND(H24+H29+H33, 0)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="17">
         <f t="shared" ref="I35:L35" si="4">ROUND(I24+I29+I33, 0)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="37" spans="3:14" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N35" s="17"/>
+    </row>
+    <row r="37" spans="3:14" ht="11.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="N37" s="23"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>107</v>
       </c>
@@ -5559,7 +6806,7 @@
       <c r="L38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>159</v>
       </c>
@@ -5574,7 +6821,7 @@
       <c r="L39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>110</v>
       </c>
@@ -5589,7 +6836,7 @@
       <c r="L40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>108</v>
       </c>
@@ -5604,7 +6851,7 @@
       <c r="L41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
@@ -5619,7 +6866,7 @@
       <c r="L42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>111</v>
       </c>
@@ -5634,7 +6881,7 @@
       <c r="L43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>112</v>
       </c>
@@ -5649,7 +6896,7 @@
       <c r="L44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>113</v>
       </c>
@@ -5664,7 +6911,7 @@
       <c r="L45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>114</v>
       </c>
@@ -5679,461 +6926,461 @@
       <c r="L46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C48" s="7" t="s">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C48" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C49" s="8" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C49" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C51" s="9" t="s">
+    <row r="51" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C51" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C52" s="9" t="s">
+    <row r="52" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C53" s="9" t="s">
+    <row r="53" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C53" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H53" s="48" t="s">
+      <c r="H53" s="47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C54" s="9" t="s">
+    <row r="54" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C54" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="48" t="s">
+      <c r="G54" s="53"/>
+      <c r="H54" s="47" t="s">
         <v>128</v>
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C55" s="9" t="s">
+    <row r="55" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C55" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="48" t="s">
+      <c r="H55" s="47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="L56" s="24"/>
-      <c r="N56" s="24"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="L57" s="24"/>
-      <c r="N57" s="24"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="L58" s="24"/>
-      <c r="N58" s="24"/>
-    </row>
-    <row r="59" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="68" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L56" s="23"/>
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L57" s="23"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L58" s="23"/>
+      <c r="N58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="71"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B61" s="42" t="s">
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="70"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="25" t="s">
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="25" t="s">
+      <c r="I61" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="25" t="s">
+      <c r="J61" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="25" t="s">
+      <c r="K61" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="25" t="s">
+      <c r="L61" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N61" s="24"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C62" s="5" t="str">
         <f>C5</f>
         <v>Assets</v>
       </c>
       <c r="H62" s="6">
-        <f>H5</f>
+        <f t="shared" ref="H62:L64" si="5">H5</f>
         <v>400000</v>
       </c>
       <c r="I62" s="6">
-        <f>I5</f>
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
       <c r="J62" s="6">
-        <f>J5</f>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
       <c r="K62" s="6">
-        <f>K5</f>
+        <f t="shared" si="5"/>
         <v>100000</v>
       </c>
       <c r="L62" s="6">
-        <f>L5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C63" s="5" t="str">
         <f>C6</f>
         <v>Liabilities</v>
       </c>
       <c r="H63" s="6">
-        <f>H6</f>
+        <f t="shared" si="5"/>
         <v>284233.25404779252</v>
       </c>
       <c r="I63" s="6">
-        <f>I6</f>
+        <f t="shared" si="5"/>
         <v>229841.24453352764</v>
       </c>
       <c r="J63" s="6">
-        <f>J6</f>
+        <f t="shared" si="5"/>
         <v>160172.19387755101</v>
       </c>
       <c r="K63" s="6">
-        <f>K6</f>
+        <f t="shared" si="5"/>
         <v>82142.85714285713</v>
       </c>
       <c r="L63" s="6">
-        <f>L6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="45"/>
-      <c r="C64" s="46" t="str">
+    <row r="64" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="44"/>
+      <c r="C64" s="45" t="str">
         <f>C7</f>
         <v>Equity (net of worth)</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="26">
-        <f>H7</f>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="25">
+        <f t="shared" si="5"/>
         <v>115766.74595220748</v>
       </c>
-      <c r="I64" s="26">
-        <f>I7</f>
+      <c r="I64" s="25">
+        <f t="shared" si="5"/>
         <v>70158.755466472358</v>
       </c>
-      <c r="J64" s="26">
-        <f>J7</f>
+      <c r="J64" s="25">
+        <f t="shared" si="5"/>
         <v>39827.806122448994</v>
       </c>
-      <c r="K64" s="26">
-        <f>K7</f>
+      <c r="K64" s="25">
+        <f t="shared" si="5"/>
         <v>17857.14285714287</v>
       </c>
-      <c r="L64" s="26">
-        <f>L7</f>
+      <c r="L64" s="25">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N64" s="26"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B66" s="42" t="s">
+      <c r="N64" s="25"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="25" t="s">
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I66" s="25" t="s">
+      <c r="I66" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="J66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="25" t="s">
+      <c r="K66" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L66" s="25" t="s">
+      <c r="L66" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N66" s="25"/>
-    </row>
-    <row r="67" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="8" t="s">
+      <c r="N66" s="24"/>
+    </row>
+    <row r="67" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27">
-        <f>I10</f>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26">
+        <f t="shared" ref="I67:L75" si="6">I10</f>
         <v>400000</v>
       </c>
-      <c r="J67" s="27">
-        <f>J10</f>
+      <c r="J67" s="26">
+        <f t="shared" si="6"/>
         <v>450000</v>
       </c>
-      <c r="K67" s="27">
-        <f>K10</f>
+      <c r="K67" s="26">
+        <f t="shared" si="6"/>
         <v>450000</v>
       </c>
-      <c r="L67" s="27">
-        <f>L10</f>
+      <c r="L67" s="26">
+        <f t="shared" si="6"/>
         <v>400000</v>
       </c>
-      <c r="N67" s="27"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C68" s="9" t="s">
+      <c r="N67" s="26"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C68" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="6">
-        <f>I11</f>
+        <f t="shared" si="6"/>
         <v>-150000</v>
       </c>
       <c r="J68" s="6">
-        <f>J11</f>
+        <f t="shared" si="6"/>
         <v>-175000</v>
       </c>
       <c r="K68" s="6">
-        <f>K11</f>
+        <f t="shared" si="6"/>
         <v>-175000</v>
       </c>
       <c r="L68" s="6">
-        <f>L11</f>
+        <f t="shared" si="6"/>
         <v>-150000</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C69" s="47" t="s">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C69" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28">
-        <f>I12</f>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27">
+        <f t="shared" si="6"/>
         <v>-40000</v>
       </c>
-      <c r="J69" s="28">
-        <f>J12</f>
+      <c r="J69" s="27">
+        <f t="shared" si="6"/>
         <v>-40000</v>
       </c>
-      <c r="K69" s="28">
-        <f>K12</f>
+      <c r="K69" s="27">
+        <f t="shared" si="6"/>
         <v>-40000</v>
       </c>
-      <c r="L69" s="28">
-        <f>L12</f>
+      <c r="L69" s="27">
+        <f t="shared" si="6"/>
         <v>-40000</v>
       </c>
-      <c r="N69" s="28"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C70" s="8" t="s">
+      <c r="N69" s="27"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C70" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27">
-        <f>I13</f>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26">
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
-      <c r="J70" s="27">
-        <f>J13</f>
+      <c r="J70" s="26">
+        <f t="shared" si="6"/>
         <v>235000</v>
       </c>
-      <c r="K70" s="27">
-        <f>K13</f>
+      <c r="K70" s="26">
+        <f t="shared" si="6"/>
         <v>235000</v>
       </c>
-      <c r="L70" s="27">
-        <f>L13</f>
+      <c r="L70" s="26">
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
-      <c r="N70" s="27"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C71" s="47" t="s">
+      <c r="N70" s="26"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C71" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28">
-        <f>I14</f>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27">
+        <f t="shared" si="6"/>
         <v>-100000</v>
       </c>
-      <c r="J71" s="28">
-        <f>J14</f>
+      <c r="J71" s="27">
+        <f t="shared" si="6"/>
         <v>-100000</v>
       </c>
-      <c r="K71" s="28">
-        <f>K14</f>
+      <c r="K71" s="27">
+        <f t="shared" si="6"/>
         <v>-100000</v>
       </c>
-      <c r="L71" s="28">
-        <f>L14</f>
+      <c r="L71" s="27">
+        <f t="shared" si="6"/>
         <v>-100000</v>
       </c>
-      <c r="N71" s="28"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C72" s="8" t="s">
+      <c r="N71" s="27"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C72" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27">
-        <f>I15</f>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26">
+        <f t="shared" si="6"/>
         <v>110000</v>
       </c>
-      <c r="J72" s="27">
-        <f>J15</f>
+      <c r="J72" s="26">
+        <f t="shared" si="6"/>
         <v>135000</v>
       </c>
-      <c r="K72" s="27">
-        <f>K15</f>
+      <c r="K72" s="26">
+        <f t="shared" si="6"/>
         <v>135000</v>
       </c>
-      <c r="L72" s="27">
-        <f>L15</f>
+      <c r="L72" s="26">
+        <f t="shared" si="6"/>
         <v>110000</v>
       </c>
-      <c r="N72" s="27"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N72" s="26"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C73" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I73" s="6">
-        <f>I16</f>
+        <f t="shared" si="6"/>
         <v>-17053.99524286755</v>
       </c>
       <c r="J73" s="6">
-        <f>J16</f>
+        <f t="shared" si="6"/>
         <v>-13790.474672011658</v>
       </c>
       <c r="K73" s="6">
-        <f>K16</f>
+        <f t="shared" si="6"/>
         <v>-9610.3316326530603</v>
       </c>
       <c r="L73" s="6">
-        <f>L16</f>
+        <f t="shared" si="6"/>
         <v>-4928.5714285714275</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C74" s="47" t="s">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C74" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="49" t="s">
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28">
-        <f>I17</f>
+      <c r="G74" s="46"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27">
+        <f t="shared" si="6"/>
         <v>-27883.801427139737</v>
       </c>
-      <c r="J74" s="28">
-        <f>J17</f>
+      <c r="J74" s="27">
+        <f t="shared" si="6"/>
         <v>-36362.857598396506</v>
       </c>
-      <c r="K74" s="28">
-        <f>K17</f>
+      <c r="K74" s="27">
+        <f t="shared" si="6"/>
         <v>-37616.900510204083</v>
       </c>
-      <c r="L74" s="28">
-        <f>L17</f>
+      <c r="L74" s="27">
+        <f t="shared" si="6"/>
         <v>-31521.428571428572</v>
       </c>
-      <c r="N74" s="28"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N74" s="27"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C75" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I75" s="6">
-        <f>I18</f>
+        <f t="shared" si="6"/>
         <v>65062.203329992713</v>
       </c>
       <c r="J75" s="6">
-        <f>J18</f>
+        <f t="shared" si="6"/>
         <v>84846.667729591834</v>
       </c>
       <c r="K75" s="6">
-        <f>K18</f>
+        <f t="shared" si="6"/>
         <v>87772.767857142855</v>
       </c>
       <c r="L75" s="6">
-        <f>L18</f>
+        <f t="shared" si="6"/>
         <v>73550</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C76" s="5" t="s">
         <v>11</v>
       </c>
@@ -6142,170 +7389,170 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C77" s="47" t="s">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C77" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="N77" s="28"/>
-    </row>
-    <row r="78" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C78" s="50" t="s">
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="N77" s="27"/>
+    </row>
+    <row r="78" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29">
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28">
         <f>I21</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J78" s="29">
+      <c r="J78" s="28">
         <f>J21</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K78" s="29">
+      <c r="K78" s="28">
         <f>K21</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L78" s="29">
+      <c r="L78" s="28">
         <f>L21</f>
         <v>80550</v>
       </c>
-      <c r="N78" s="29"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="N79" s="30"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="N80" s="30"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N78" s="28"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="N79" s="29"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="N80" s="29"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N82" s="10"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L83" s="31" t="s">
+      <c r="L83" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="N83" s="31"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N83" s="30"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N85" s="10"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="L86" s="10" t="s">
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L86" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B88" s="55" t="s">
+      <c r="N86" s="9"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="25" t="s">
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="25" t="s">
+      <c r="I88" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J88" s="25" t="s">
+      <c r="J88" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K88" s="25" t="s">
+      <c r="K88" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L88" s="25" t="s">
+      <c r="L88" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N88" s="25"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C89" s="8"/>
-      <c r="D89" s="8" t="s">
+      <c r="N88" s="24"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C89" s="7"/>
+      <c r="D89" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27">
+      <c r="H89" s="26"/>
+      <c r="I89" s="26">
         <f>SUM(I90:I92)</f>
         <v>177000</v>
       </c>
-      <c r="J89" s="27">
+      <c r="J89" s="26">
         <f>SUM(J90:J92)</f>
         <v>194500</v>
       </c>
-      <c r="K89" s="27">
+      <c r="K89" s="26">
         <f>SUM(K90:K92)</f>
         <v>194500</v>
       </c>
-      <c r="L89" s="27">
+      <c r="L89" s="26">
         <f>SUM(L90:L92)</f>
         <v>177000</v>
       </c>
-      <c r="N89" s="27"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C90" s="8"/>
-      <c r="E90" s="9" t="s">
+      <c r="N89" s="26"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C90" s="7"/>
+      <c r="E90" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I90" s="6">
@@ -6325,130 +7572,130 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C91" s="8"/>
-      <c r="E91" s="56" t="s">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="7"/>
+      <c r="E91" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="32">
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="31">
         <f>-I90*0.3</f>
         <v>-33000</v>
       </c>
-      <c r="J91" s="32">
+      <c r="J91" s="31">
         <f>-J90*0.3</f>
         <v>-40500</v>
       </c>
-      <c r="K91" s="32">
+      <c r="K91" s="31">
         <f>-K90*0.3</f>
         <v>-40500</v>
       </c>
-      <c r="L91" s="32">
+      <c r="L91" s="31">
         <f>-L90*0.3</f>
         <v>-33000</v>
       </c>
-      <c r="N91" s="32"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C92" s="8"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="56" t="s">
+      <c r="N91" s="31"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C92" s="7"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32">
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31">
         <f>-I14</f>
         <v>100000</v>
       </c>
-      <c r="J92" s="32">
+      <c r="J92" s="31">
         <f>-J14</f>
         <v>100000</v>
       </c>
-      <c r="K92" s="32">
+      <c r="K92" s="31">
         <f>-K14</f>
         <v>100000</v>
       </c>
-      <c r="L92" s="32">
+      <c r="L92" s="31">
         <f>-L14</f>
         <v>100000</v>
       </c>
-      <c r="N92" s="32"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C93" s="8"/>
-      <c r="D93" s="8" t="s">
+      <c r="N92" s="31"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H93" s="27"/>
-      <c r="L93" s="27">
+      <c r="H93" s="26"/>
+      <c r="L93" s="26">
         <v>7000</v>
       </c>
-      <c r="N93" s="27"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C94" s="8"/>
-      <c r="D94" s="8" t="s">
+      <c r="N93" s="26"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C95" s="50" t="s">
+    <row r="95" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C95" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29">
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28">
         <f>SUM(I89,I93,I94)</f>
         <v>177000</v>
       </c>
-      <c r="J95" s="29">
+      <c r="J95" s="28">
         <f>SUM(J89,J93,J94)</f>
         <v>194500</v>
       </c>
-      <c r="K95" s="29">
+      <c r="K95" s="28">
         <f>SUM(K89,K93,K94)</f>
         <v>194500</v>
       </c>
-      <c r="L95" s="29">
+      <c r="L95" s="28">
         <f>SUM(L89,L93,L94)</f>
         <v>184000</v>
       </c>
-      <c r="N95" s="29"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B97" s="55" t="s">
+      <c r="N95" s="28"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="33">
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="32">
         <v>0</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I97" s="32">
         <v>1</v>
       </c>
-      <c r="J97" s="33">
+      <c r="J97" s="32">
         <v>2</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K97" s="32">
         <v>3</v>
       </c>
-      <c r="L97" s="33">
+      <c r="L97" s="32">
         <v>4</v>
       </c>
-      <c r="N97" s="33"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N97" s="32"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C98" s="5" t="s">
         <v>22</v>
       </c>
@@ -6473,457 +7720,457 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C99" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H99" s="33">
         <v>1</v>
       </c>
-      <c r="I99" s="34">
+      <c r="I99" s="33">
         <f>(1+12%)^I97</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="J99" s="34">
+      <c r="J99" s="33">
         <f>(1+12%)^J97</f>
         <v>1.2544000000000002</v>
       </c>
-      <c r="K99" s="34">
+      <c r="K99" s="33">
         <f>(1+12%)^K97</f>
         <v>1.4049280000000004</v>
       </c>
-      <c r="L99" s="34">
+      <c r="L99" s="33">
         <f>(1+12%)^L97</f>
         <v>1.5735193600000004</v>
       </c>
-      <c r="N99" s="34"/>
-    </row>
-    <row r="100" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="50" t="s">
+      <c r="N99" s="33"/>
+    </row>
+    <row r="100" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="29">
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="28">
         <f>H98/H99</f>
         <v>0</v>
       </c>
-      <c r="I100" s="29">
+      <c r="I100" s="28">
         <f>I98/I99</f>
         <v>158035.71428571426</v>
       </c>
-      <c r="J100" s="29">
+      <c r="J100" s="28">
         <f>J98/J99</f>
         <v>155054.20918367343</v>
       </c>
-      <c r="K100" s="29">
+      <c r="K100" s="28">
         <f>K98/K99</f>
         <v>138441.25819970842</v>
       </c>
-      <c r="L100" s="29">
+      <c r="L100" s="28">
         <f>L98/L99</f>
         <v>116935.32642648893</v>
       </c>
-      <c r="N100" s="29"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B103" s="51" t="s">
+      <c r="N100" s="28"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="30">
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="29">
         <f>SUM(H100:L100)</f>
         <v>568466.50809558504</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="68" t="s">
+    <row r="116" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="71"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="71"/>
-      <c r="K116" s="71"/>
-      <c r="L116" s="71"/>
-      <c r="M116" s="68"/>
-      <c r="N116" s="71"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B118" s="42" t="s">
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="67"/>
+      <c r="N116" s="70"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="25" t="s">
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I118" s="25" t="s">
+      <c r="I118" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J118" s="25" t="s">
+      <c r="J118" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K118" s="25" t="s">
+      <c r="K118" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L118" s="25" t="s">
+      <c r="L118" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N118" s="25"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N118" s="24"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C119" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H119" s="6">
-        <f>H5</f>
+        <f t="shared" ref="H119:L121" si="7">H5</f>
         <v>400000</v>
       </c>
       <c r="I119" s="6">
-        <f>I5</f>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
       <c r="J119" s="6">
-        <f>J5</f>
+        <f t="shared" si="7"/>
         <v>200000</v>
       </c>
       <c r="K119" s="6">
-        <f>K5</f>
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="L119" s="6">
-        <f>L5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C120" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H120" s="6">
-        <f>H6</f>
+        <f t="shared" si="7"/>
         <v>284233.25404779252</v>
       </c>
       <c r="I120" s="6">
-        <f>I6</f>
+        <f t="shared" si="7"/>
         <v>229841.24453352764</v>
       </c>
       <c r="J120" s="6">
-        <f>J6</f>
+        <f t="shared" si="7"/>
         <v>160172.19387755101</v>
       </c>
       <c r="K120" s="6">
-        <f>K6</f>
+        <f t="shared" si="7"/>
         <v>82142.85714285713</v>
       </c>
       <c r="L120" s="6">
-        <f>L6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="45"/>
-      <c r="C121" s="46" t="s">
+    <row r="121" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="44"/>
+      <c r="C121" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="26">
-        <f>H7</f>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="25">
+        <f t="shared" si="7"/>
         <v>115766.74595220748</v>
       </c>
-      <c r="I121" s="26">
-        <f>I7</f>
+      <c r="I121" s="25">
+        <f t="shared" si="7"/>
         <v>70158.755466472358</v>
       </c>
-      <c r="J121" s="26">
-        <f>J7</f>
+      <c r="J121" s="25">
+        <f t="shared" si="7"/>
         <v>39827.806122448994</v>
       </c>
-      <c r="K121" s="26">
-        <f>K7</f>
+      <c r="K121" s="25">
+        <f t="shared" si="7"/>
         <v>17857.14285714287</v>
       </c>
-      <c r="L121" s="26">
-        <f>L7</f>
+      <c r="L121" s="25">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N121" s="26"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B123" s="42" t="s">
+      <c r="N121" s="25"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="25" t="s">
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="25" t="s">
+      <c r="I123" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J123" s="25" t="s">
+      <c r="J123" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="25" t="s">
+      <c r="K123" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L123" s="25" t="s">
+      <c r="L123" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N123" s="25"/>
-    </row>
-    <row r="124" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C124" s="8" t="s">
+      <c r="N123" s="24"/>
+    </row>
+    <row r="124" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27">
-        <f>I10</f>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26">
+        <f t="shared" ref="I124:L132" si="8">I10</f>
         <v>400000</v>
       </c>
-      <c r="J124" s="27">
-        <f>J10</f>
+      <c r="J124" s="26">
+        <f t="shared" si="8"/>
         <v>450000</v>
       </c>
-      <c r="K124" s="27">
-        <f>K10</f>
+      <c r="K124" s="26">
+        <f t="shared" si="8"/>
         <v>450000</v>
       </c>
-      <c r="L124" s="27">
-        <f>L10</f>
+      <c r="L124" s="26">
+        <f t="shared" si="8"/>
         <v>400000</v>
       </c>
-      <c r="N124" s="27"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C125" s="9" t="s">
+      <c r="N124" s="26"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C125" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I125" s="6">
-        <f>I11</f>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="J125" s="6">
-        <f>J11</f>
+        <f t="shared" si="8"/>
         <v>-175000</v>
       </c>
       <c r="K125" s="6">
-        <f>K11</f>
+        <f t="shared" si="8"/>
         <v>-175000</v>
       </c>
       <c r="L125" s="6">
-        <f>L11</f>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C126" s="47" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C126" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28">
-        <f>I12</f>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27">
+        <f t="shared" si="8"/>
         <v>-40000</v>
       </c>
-      <c r="J126" s="28">
-        <f>J12</f>
+      <c r="J126" s="27">
+        <f t="shared" si="8"/>
         <v>-40000</v>
       </c>
-      <c r="K126" s="28">
-        <f>K12</f>
+      <c r="K126" s="27">
+        <f t="shared" si="8"/>
         <v>-40000</v>
       </c>
-      <c r="L126" s="28">
-        <f>L12</f>
+      <c r="L126" s="27">
+        <f t="shared" si="8"/>
         <v>-40000</v>
       </c>
-      <c r="N126" s="28"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C127" s="8" t="s">
+      <c r="N126" s="27"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C127" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27">
-        <f>I13</f>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26">
+        <f t="shared" si="8"/>
         <v>210000</v>
       </c>
-      <c r="J127" s="27">
-        <f>J13</f>
+      <c r="J127" s="26">
+        <f t="shared" si="8"/>
         <v>235000</v>
       </c>
-      <c r="K127" s="27">
-        <f>K13</f>
+      <c r="K127" s="26">
+        <f t="shared" si="8"/>
         <v>235000</v>
       </c>
-      <c r="L127" s="27">
-        <f>L13</f>
+      <c r="L127" s="26">
+        <f t="shared" si="8"/>
         <v>210000</v>
       </c>
-      <c r="N127" s="27"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C128" s="47" t="s">
+      <c r="N127" s="26"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C128" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28">
-        <f>I14</f>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27">
+        <f t="shared" si="8"/>
         <v>-100000</v>
       </c>
-      <c r="J128" s="28">
-        <f>J14</f>
+      <c r="J128" s="27">
+        <f t="shared" si="8"/>
         <v>-100000</v>
       </c>
-      <c r="K128" s="28">
-        <f>K14</f>
+      <c r="K128" s="27">
+        <f t="shared" si="8"/>
         <v>-100000</v>
       </c>
-      <c r="L128" s="28">
-        <f>L14</f>
+      <c r="L128" s="27">
+        <f t="shared" si="8"/>
         <v>-100000</v>
       </c>
-      <c r="N128" s="28"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C129" s="8" t="s">
+      <c r="N128" s="27"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C129" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27">
-        <f>I15</f>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26">
+        <f t="shared" si="8"/>
         <v>110000</v>
       </c>
-      <c r="J129" s="27">
-        <f>J15</f>
+      <c r="J129" s="26">
+        <f t="shared" si="8"/>
         <v>135000</v>
       </c>
-      <c r="K129" s="27">
-        <f>K15</f>
+      <c r="K129" s="26">
+        <f t="shared" si="8"/>
         <v>135000</v>
       </c>
-      <c r="L129" s="27">
-        <f>L15</f>
+      <c r="L129" s="26">
+        <f t="shared" si="8"/>
         <v>110000</v>
       </c>
-      <c r="N129" s="27"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N129" s="26"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C130" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F130" s="48" t="s">
+      <c r="F130" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I130" s="6">
-        <f>I16</f>
+        <f t="shared" si="8"/>
         <v>-17053.99524286755</v>
       </c>
       <c r="J130" s="6">
-        <f>J16</f>
+        <f t="shared" si="8"/>
         <v>-13790.474672011658</v>
       </c>
       <c r="K130" s="6">
-        <f>K16</f>
+        <f t="shared" si="8"/>
         <v>-9610.3316326530603</v>
       </c>
       <c r="L130" s="6">
-        <f>L16</f>
+        <f t="shared" si="8"/>
         <v>-4928.5714285714275</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C131" s="47" t="s">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C131" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="49" t="s">
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G131" s="47"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28">
-        <f>I17</f>
+      <c r="G131" s="46"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27">
+        <f t="shared" si="8"/>
         <v>-27883.801427139737</v>
       </c>
-      <c r="J131" s="28">
-        <f>J17</f>
+      <c r="J131" s="27">
+        <f t="shared" si="8"/>
         <v>-36362.857598396506</v>
       </c>
-      <c r="K131" s="28">
-        <f>K17</f>
+      <c r="K131" s="27">
+        <f t="shared" si="8"/>
         <v>-37616.900510204083</v>
       </c>
-      <c r="L131" s="28">
-        <f>L17</f>
+      <c r="L131" s="27">
+        <f t="shared" si="8"/>
         <v>-31521.428571428572</v>
       </c>
-      <c r="N131" s="28"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N131" s="27"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C132" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I132" s="6">
-        <f>I18</f>
+        <f t="shared" si="8"/>
         <v>65062.203329992713</v>
       </c>
       <c r="J132" s="6">
-        <f>J18</f>
+        <f t="shared" si="8"/>
         <v>84846.667729591834</v>
       </c>
       <c r="K132" s="6">
-        <f>K18</f>
+        <f t="shared" si="8"/>
         <v>87772.767857142855</v>
       </c>
       <c r="L132" s="6">
-        <f>L18</f>
+        <f t="shared" si="8"/>
         <v>73550</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C133" s="5" t="s">
         <v>11</v>
       </c>
@@ -6932,49 +8179,49 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C134" s="47" t="s">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C134" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28"/>
-      <c r="N134" s="28"/>
-    </row>
-    <row r="135" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C135" s="50" t="s">
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="N134" s="27"/>
+    </row>
+    <row r="135" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C135" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29">
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28">
         <f>I21</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J135" s="29">
+      <c r="J135" s="28">
         <f>J21</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K135" s="29">
+      <c r="K135" s="28">
         <f>K21</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L135" s="29">
+      <c r="L135" s="28">
         <f>L21</f>
         <v>80550</v>
       </c>
-      <c r="N135" s="29"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N135" s="28"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>24</v>
       </c>
@@ -6982,69 +8229,69 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B141" s="55" t="s">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C141" s="43"/>
-      <c r="D141" s="43"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="43"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="25" t="s">
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="42"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I141" s="25" t="s">
+      <c r="I141" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J141" s="25" t="s">
+      <c r="J141" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K141" s="25" t="s">
+      <c r="K141" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L141" s="25" t="s">
+      <c r="L141" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N141" s="25"/>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C142" s="8"/>
-      <c r="D142" s="9" t="s">
+      <c r="N141" s="24"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C142" s="7"/>
+      <c r="D142" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27">
+      <c r="H142" s="26"/>
+      <c r="I142" s="26">
         <f>I95</f>
         <v>177000</v>
       </c>
-      <c r="J142" s="27">
+      <c r="J142" s="26">
         <f>J95</f>
         <v>194500</v>
       </c>
-      <c r="K142" s="27">
+      <c r="K142" s="26">
         <f>K95</f>
         <v>194500</v>
       </c>
-      <c r="L142" s="27">
+      <c r="L142" s="26">
         <f>L95</f>
         <v>184000</v>
       </c>
-      <c r="N142" s="27"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C143" s="8"/>
-      <c r="D143" s="9" t="s">
+      <c r="N142" s="26"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C143" s="7"/>
+      <c r="D143" s="8" t="s">
         <v>28</v>
       </c>
       <c r="I143" s="6">
@@ -7064,86 +8311,86 @@
         <v>-3449.9999999999991</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C144" s="8"/>
-      <c r="D144" s="56" t="s">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C144" s="7"/>
+      <c r="D144" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="32">
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="31">
         <f>I6-H6</f>
         <v>-54392.009514264879</v>
       </c>
-      <c r="J144" s="32">
+      <c r="J144" s="31">
         <f>J6-I6</f>
         <v>-69669.050655976636</v>
       </c>
-      <c r="K144" s="32">
+      <c r="K144" s="31">
         <f>K6-J6</f>
         <v>-78029.336734693876</v>
       </c>
-      <c r="L144" s="32">
+      <c r="L144" s="31">
         <f>L6-K6</f>
         <v>-82142.85714285713</v>
       </c>
-      <c r="N144" s="32"/>
-    </row>
-    <row r="145" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C145" s="50" t="s">
+      <c r="N144" s="31"/>
+    </row>
+    <row r="145" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C145" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29">
+      <c r="D145" s="49"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="28">
         <f>SUM(I142:I144)</f>
         <v>110670.19381572783</v>
       </c>
-      <c r="J145" s="29">
+      <c r="J145" s="28">
         <f>SUM(J142:J144)</f>
         <v>115177.6170736152</v>
       </c>
-      <c r="K145" s="29">
+      <c r="K145" s="28">
         <f>SUM(K142:K144)</f>
         <v>109743.43112244899</v>
       </c>
-      <c r="L145" s="29">
+      <c r="L145" s="28">
         <f>SUM(L142:L144)</f>
         <v>98407.14285714287</v>
       </c>
-      <c r="N145" s="29"/>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B147" s="55" t="s">
+      <c r="N145" s="28"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="43"/>
-      <c r="D147" s="43"/>
-      <c r="E147" s="43"/>
-      <c r="F147" s="43"/>
-      <c r="G147" s="43"/>
-      <c r="H147" s="33">
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="32">
         <v>0</v>
       </c>
-      <c r="I147" s="33">
+      <c r="I147" s="32">
         <v>1</v>
       </c>
-      <c r="J147" s="33">
+      <c r="J147" s="32">
         <v>2</v>
       </c>
-      <c r="K147" s="33">
+      <c r="K147" s="32">
         <v>3</v>
       </c>
-      <c r="L147" s="33">
+      <c r="L147" s="32">
         <v>4</v>
       </c>
-      <c r="N147" s="33"/>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N147" s="32"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D148" s="5" t="s">
         <v>22</v>
       </c>
@@ -7168,113 +8415,113 @@
         <v>98407.14285714287</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D149" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H149" s="34">
+      <c r="H149" s="33">
         <v>1</v>
       </c>
-      <c r="I149" s="34">
+      <c r="I149" s="33">
         <f>(1+19.8%)^I147</f>
         <v>1.198</v>
       </c>
-      <c r="J149" s="34">
+      <c r="J149" s="33">
         <f>(1+19.8%)^J147</f>
         <v>1.4352039999999999</v>
       </c>
-      <c r="K149" s="34">
+      <c r="K149" s="33">
         <f>(1+19.8%)^K147</f>
         <v>1.7193743919999998</v>
       </c>
-      <c r="L149" s="34">
+      <c r="L149" s="33">
         <f>(1+19.8%)^L147</f>
         <v>2.0598105216159999</v>
       </c>
-      <c r="N149" s="34"/>
-    </row>
-    <row r="150" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C150" s="50" t="s">
+      <c r="N149" s="33"/>
+    </row>
+    <row r="150" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C150" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D150" s="50"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="29">
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="28">
         <f>H148/H149</f>
         <v>0</v>
       </c>
-      <c r="I150" s="29">
+      <c r="I150" s="28">
         <f>I148/I149</f>
         <v>92379.126724313726</v>
       </c>
-      <c r="J150" s="29">
+      <c r="J150" s="28">
         <f>J148/J149</f>
         <v>80251.739176880219</v>
       </c>
-      <c r="K150" s="29">
+      <c r="K150" s="28">
         <f>K148/K149</f>
         <v>63827.536127715583</v>
       </c>
-      <c r="L150" s="29">
+      <c r="L150" s="28">
         <f>L148/L149</f>
         <v>47774.852018883132</v>
       </c>
-      <c r="N150" s="29"/>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B152" s="51" t="s">
+      <c r="N150" s="28"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="30">
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="29">
         <f>SUM(H150:L150)</f>
         <v>284233.25404779264</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B153" s="51"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="30"/>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B155" s="55" t="s">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="50"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="29"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B155" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C155" s="43"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="25" t="s">
+      <c r="C155" s="42"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I155" s="25" t="s">
+      <c r="I155" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J155" s="25" t="s">
+      <c r="J155" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K155" s="25" t="s">
+      <c r="K155" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L155" s="25" t="s">
+      <c r="L155" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N155" s="25"/>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C156" s="8"/>
-      <c r="D156" s="9" t="s">
+      <c r="N155" s="24"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C156" s="7"/>
+      <c r="D156" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I156" s="6">
@@ -7294,86 +8541,86 @@
         <v>82142.85714285713</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C157" s="8"/>
-      <c r="D157" s="56" t="s">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C157" s="7"/>
+      <c r="D157" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="32">
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="31">
         <f>-I130</f>
         <v>17053.99524286755</v>
       </c>
-      <c r="J157" s="32">
+      <c r="J157" s="31">
         <f>-J130</f>
         <v>13790.474672011658</v>
       </c>
-      <c r="K157" s="32">
+      <c r="K157" s="31">
         <f>-K130</f>
         <v>9610.3316326530603</v>
       </c>
-      <c r="L157" s="32">
+      <c r="L157" s="31">
         <f>-L130</f>
         <v>4928.5714285714275</v>
       </c>
-      <c r="N157" s="32"/>
-    </row>
-    <row r="158" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C158" s="50" t="s">
+      <c r="N157" s="31"/>
+    </row>
+    <row r="158" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C158" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
-      <c r="G158" s="50"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29">
+      <c r="D158" s="49"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="28"/>
+      <c r="I158" s="28">
         <f>SUM(I156:I157)</f>
         <v>71446.004757132425</v>
       </c>
-      <c r="J158" s="29">
+      <c r="J158" s="28">
         <f>SUM(J156:J157)</f>
         <v>83459.525327988289</v>
       </c>
-      <c r="K158" s="29">
+      <c r="K158" s="28">
         <f>SUM(K156:K157)</f>
         <v>87639.668367346938</v>
       </c>
-      <c r="L158" s="29">
+      <c r="L158" s="28">
         <f>SUM(L156:L157)</f>
         <v>87071.428571428551</v>
       </c>
-      <c r="N158" s="29"/>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B160" s="55" t="s">
+      <c r="N158" s="28"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-      <c r="H160" s="33">
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="32">
         <v>0</v>
       </c>
-      <c r="I160" s="33">
+      <c r="I160" s="32">
         <v>1</v>
       </c>
-      <c r="J160" s="33">
+      <c r="J160" s="32">
         <v>2</v>
       </c>
-      <c r="K160" s="33">
+      <c r="K160" s="32">
         <v>3</v>
       </c>
-      <c r="L160" s="33">
+      <c r="L160" s="32">
         <v>4</v>
       </c>
-      <c r="N160" s="33"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N160" s="32"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C161" s="5" t="s">
         <v>22</v>
       </c>
@@ -7398,475 +8645,481 @@
         <v>87071.428571428551</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C162" s="5" t="s">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C162" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="H162" s="34">
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="73">
         <v>1</v>
       </c>
-      <c r="I162" s="34">
+      <c r="I162" s="73">
         <f>(1+6%)^I160</f>
         <v>1.06</v>
       </c>
-      <c r="J162" s="34">
+      <c r="J162" s="73">
         <f>(1+6%)^J160</f>
         <v>1.1236000000000002</v>
       </c>
-      <c r="K162" s="34">
+      <c r="K162" s="73">
         <f>(1+6%)^K160</f>
         <v>1.1910160000000003</v>
       </c>
-      <c r="L162" s="34">
+      <c r="L162" s="73">
         <f>(1+6%)^L160</f>
         <v>1.2624769600000003</v>
       </c>
-      <c r="N162" s="34" t="s">
+      <c r="M162" s="72"/>
+      <c r="N162" s="73" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C163" s="50" t="s">
+    <row r="163" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C163" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D163" s="50"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="50"/>
-      <c r="G163" s="50"/>
-      <c r="H163" s="29">
+      <c r="D163" s="74"/>
+      <c r="E163" s="74"/>
+      <c r="F163" s="74"/>
+      <c r="G163" s="74"/>
+      <c r="H163" s="75">
         <f>H161/H162</f>
         <v>0</v>
       </c>
-      <c r="I163" s="29">
+      <c r="I163" s="75">
         <f>I161/I162</f>
         <v>67401.891280313605</v>
       </c>
-      <c r="J163" s="29">
+      <c r="J163" s="75">
         <f>J161/J162</f>
         <v>74278.680427187865</v>
       </c>
-      <c r="K163" s="29">
+      <c r="K163" s="75">
         <f>K161/K162</f>
         <v>73583.955519780517</v>
       </c>
-      <c r="L163" s="29">
+      <c r="L163" s="75">
         <f>L161/L162</f>
         <v>68968.726820510477</v>
       </c>
-      <c r="N163" s="67" t="s">
+      <c r="M163" s="72"/>
+      <c r="N163" s="76" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B165" s="51" t="s">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="45"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="30">
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="29">
         <f>SUM(H163:L163)</f>
         <v>284233.25404779246</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B167" s="51" t="s">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I167" s="57">
+      <c r="I167" s="56">
         <f>H165+H152</f>
         <v>568466.50809558504</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
     </row>
-    <row r="173" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="68" t="s">
+    <row r="173" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B173" s="68"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="68"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="71"/>
-      <c r="I173" s="71"/>
-      <c r="J173" s="71"/>
-      <c r="K173" s="71"/>
-      <c r="L173" s="71"/>
-      <c r="M173" s="68"/>
-      <c r="N173" s="71"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B174" s="8"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B175" s="42" t="s">
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="67"/>
+      <c r="F173" s="67"/>
+      <c r="G173" s="67"/>
+      <c r="H173" s="70"/>
+      <c r="I173" s="70"/>
+      <c r="J173" s="70"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="70"/>
+      <c r="M173" s="67"/>
+      <c r="N173" s="70"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C175" s="43"/>
-      <c r="D175" s="43"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="43"/>
-      <c r="G175" s="43"/>
-      <c r="H175" s="25" t="s">
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I175" s="25" t="s">
+      <c r="I175" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J175" s="25" t="s">
+      <c r="J175" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K175" s="25" t="s">
+      <c r="K175" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L175" s="25" t="s">
+      <c r="L175" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N175" s="25"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N175" s="24"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C176" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H176" s="6">
-        <f>H5</f>
+        <f t="shared" ref="H176:L178" si="9">H5</f>
         <v>400000</v>
       </c>
       <c r="I176" s="6">
-        <f>I5</f>
+        <f t="shared" si="9"/>
         <v>300000</v>
       </c>
       <c r="J176" s="6">
-        <f>J5</f>
+        <f t="shared" si="9"/>
         <v>200000</v>
       </c>
       <c r="K176" s="6">
-        <f>K5</f>
+        <f t="shared" si="9"/>
         <v>100000</v>
       </c>
       <c r="L176" s="6">
-        <f>L5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C177" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H177" s="6">
-        <f>H6</f>
+        <f t="shared" si="9"/>
         <v>284233.25404779252</v>
       </c>
       <c r="I177" s="6">
-        <f>I6</f>
+        <f t="shared" si="9"/>
         <v>229841.24453352764</v>
       </c>
       <c r="J177" s="6">
-        <f>J6</f>
+        <f t="shared" si="9"/>
         <v>160172.19387755101</v>
       </c>
       <c r="K177" s="6">
-        <f>K6</f>
+        <f t="shared" si="9"/>
         <v>82142.85714285713</v>
       </c>
       <c r="L177" s="6">
-        <f>L6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B178" s="45"/>
-      <c r="C178" s="46" t="s">
+    <row r="178" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B178" s="44"/>
+      <c r="C178" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D178" s="46"/>
-      <c r="E178" s="46"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="46"/>
-      <c r="H178" s="26">
-        <f>H7</f>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="45"/>
+      <c r="H178" s="25">
+        <f t="shared" si="9"/>
         <v>115766.74595220748</v>
       </c>
-      <c r="I178" s="26">
-        <f>I7</f>
+      <c r="I178" s="25">
+        <f t="shared" si="9"/>
         <v>70158.755466472358</v>
       </c>
-      <c r="J178" s="26">
-        <f>J7</f>
+      <c r="J178" s="25">
+        <f t="shared" si="9"/>
         <v>39827.806122448994</v>
       </c>
-      <c r="K178" s="26">
-        <f>K7</f>
+      <c r="K178" s="25">
+        <f t="shared" si="9"/>
         <v>17857.14285714287</v>
       </c>
-      <c r="L178" s="26">
-        <f>L7</f>
+      <c r="L178" s="25">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N178" s="26"/>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B180" s="42" t="s">
+      <c r="N178" s="25"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C180" s="43"/>
-      <c r="D180" s="43"/>
-      <c r="E180" s="43"/>
-      <c r="F180" s="43"/>
-      <c r="G180" s="43"/>
-      <c r="H180" s="25" t="s">
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I180" s="25" t="s">
+      <c r="I180" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J180" s="25" t="s">
+      <c r="J180" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K180" s="25" t="s">
+      <c r="K180" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L180" s="25" t="s">
+      <c r="L180" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N180" s="25"/>
-    </row>
-    <row r="181" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C181" s="8" t="s">
+      <c r="N180" s="24"/>
+    </row>
+    <row r="181" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27">
-        <f>I10</f>
+      <c r="H181" s="26"/>
+      <c r="I181" s="26">
+        <f t="shared" ref="I181:L189" si="10">I10</f>
         <v>400000</v>
       </c>
-      <c r="J181" s="27">
-        <f>J10</f>
+      <c r="J181" s="26">
+        <f t="shared" si="10"/>
         <v>450000</v>
       </c>
-      <c r="K181" s="27">
-        <f>K10</f>
+      <c r="K181" s="26">
+        <f t="shared" si="10"/>
         <v>450000</v>
       </c>
-      <c r="L181" s="27">
-        <f>L10</f>
+      <c r="L181" s="26">
+        <f t="shared" si="10"/>
         <v>400000</v>
       </c>
-      <c r="N181" s="27"/>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C182" s="9" t="s">
+      <c r="N181" s="26"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C182" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I182" s="6">
-        <f>I11</f>
+        <f t="shared" si="10"/>
         <v>-150000</v>
       </c>
       <c r="J182" s="6">
-        <f>J11</f>
+        <f t="shared" si="10"/>
         <v>-175000</v>
       </c>
       <c r="K182" s="6">
-        <f>K11</f>
+        <f t="shared" si="10"/>
         <v>-175000</v>
       </c>
       <c r="L182" s="6">
-        <f>L11</f>
+        <f t="shared" si="10"/>
         <v>-150000</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C183" s="47" t="s">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C183" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="47"/>
-      <c r="E183" s="47"/>
-      <c r="F183" s="47"/>
-      <c r="G183" s="47"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28">
-        <f>I12</f>
+      <c r="D183" s="46"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27">
+        <f t="shared" si="10"/>
         <v>-40000</v>
       </c>
-      <c r="J183" s="28">
-        <f>J12</f>
+      <c r="J183" s="27">
+        <f t="shared" si="10"/>
         <v>-40000</v>
       </c>
-      <c r="K183" s="28">
-        <f>K12</f>
+      <c r="K183" s="27">
+        <f t="shared" si="10"/>
         <v>-40000</v>
       </c>
-      <c r="L183" s="28">
-        <f>L12</f>
+      <c r="L183" s="27">
+        <f t="shared" si="10"/>
         <v>-40000</v>
       </c>
-      <c r="N183" s="28"/>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C184" s="8" t="s">
+      <c r="N183" s="27"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C184" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27">
-        <f>I13</f>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26">
+        <f t="shared" si="10"/>
         <v>210000</v>
       </c>
-      <c r="J184" s="27">
-        <f>J13</f>
+      <c r="J184" s="26">
+        <f t="shared" si="10"/>
         <v>235000</v>
       </c>
-      <c r="K184" s="27">
-        <f>K13</f>
+      <c r="K184" s="26">
+        <f t="shared" si="10"/>
         <v>235000</v>
       </c>
-      <c r="L184" s="27">
-        <f>L13</f>
+      <c r="L184" s="26">
+        <f t="shared" si="10"/>
         <v>210000</v>
       </c>
-      <c r="N184" s="27"/>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C185" s="47" t="s">
+      <c r="N184" s="26"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C185" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D185" s="47"/>
-      <c r="E185" s="47"/>
-      <c r="F185" s="47"/>
-      <c r="G185" s="47"/>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28">
-        <f>I14</f>
+      <c r="D185" s="46"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27">
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
-      <c r="J185" s="28">
-        <f>J14</f>
+      <c r="J185" s="27">
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
-      <c r="K185" s="28">
-        <f>K14</f>
+      <c r="K185" s="27">
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
-      <c r="L185" s="28">
-        <f>L14</f>
+      <c r="L185" s="27">
+        <f t="shared" si="10"/>
         <v>-100000</v>
       </c>
-      <c r="N185" s="28"/>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C186" s="8" t="s">
+      <c r="N185" s="27"/>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C186" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27">
-        <f>I15</f>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26">
+        <f t="shared" si="10"/>
         <v>110000</v>
       </c>
-      <c r="J186" s="27">
-        <f>J15</f>
+      <c r="J186" s="26">
+        <f t="shared" si="10"/>
         <v>135000</v>
       </c>
-      <c r="K186" s="27">
-        <f>K15</f>
+      <c r="K186" s="26">
+        <f t="shared" si="10"/>
         <v>135000</v>
       </c>
-      <c r="L186" s="27">
-        <f>L15</f>
+      <c r="L186" s="26">
+        <f t="shared" si="10"/>
         <v>110000</v>
       </c>
-      <c r="N186" s="27"/>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N186" s="26"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C187" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F187" s="48" t="s">
+      <c r="F187" s="47" t="s">
         <v>121</v>
       </c>
       <c r="I187" s="6">
-        <f>I16</f>
+        <f t="shared" si="10"/>
         <v>-17053.99524286755</v>
       </c>
       <c r="J187" s="6">
-        <f>J16</f>
+        <f t="shared" si="10"/>
         <v>-13790.474672011658</v>
       </c>
       <c r="K187" s="6">
-        <f>K16</f>
+        <f t="shared" si="10"/>
         <v>-9610.3316326530603</v>
       </c>
       <c r="L187" s="6">
-        <f>L16</f>
+        <f t="shared" si="10"/>
         <v>-4928.5714285714275</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C188" s="47" t="s">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C188" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D188" s="47"/>
-      <c r="E188" s="47"/>
-      <c r="F188" s="49" t="s">
+      <c r="D188" s="46"/>
+      <c r="E188" s="46"/>
+      <c r="F188" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G188" s="47"/>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28">
-        <f>I17</f>
+      <c r="G188" s="46"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27">
+        <f t="shared" si="10"/>
         <v>-27883.801427139737</v>
       </c>
-      <c r="J188" s="28">
-        <f>J17</f>
+      <c r="J188" s="27">
+        <f t="shared" si="10"/>
         <v>-36362.857598396506</v>
       </c>
-      <c r="K188" s="28">
-        <f>K17</f>
+      <c r="K188" s="27">
+        <f t="shared" si="10"/>
         <v>-37616.900510204083</v>
       </c>
-      <c r="L188" s="28">
-        <f>L17</f>
+      <c r="L188" s="27">
+        <f t="shared" si="10"/>
         <v>-31521.428571428572</v>
       </c>
-      <c r="N188" s="28"/>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N188" s="27"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C189" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I189" s="6">
-        <f>I18</f>
+        <f t="shared" si="10"/>
         <v>65062.203329992713</v>
       </c>
       <c r="J189" s="6">
-        <f>J18</f>
+        <f t="shared" si="10"/>
         <v>84846.667729591834</v>
       </c>
       <c r="K189" s="6">
-        <f>K18</f>
+        <f t="shared" si="10"/>
         <v>87772.767857142855</v>
       </c>
       <c r="L189" s="6">
-        <f>L18</f>
+        <f t="shared" si="10"/>
         <v>73550</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C190" s="5" t="s">
         <v>11</v>
       </c>
@@ -7875,253 +9128,253 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C191" s="47" t="s">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C191" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D191" s="47"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="47"/>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="28"/>
-      <c r="N191" s="28"/>
-    </row>
-    <row r="192" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C192" s="50" t="s">
+      <c r="D191" s="46"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
+      <c r="L191" s="27"/>
+      <c r="N191" s="27"/>
+    </row>
+    <row r="192" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C192" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="50"/>
-      <c r="G192" s="50"/>
-      <c r="H192" s="29"/>
-      <c r="I192" s="29">
+      <c r="D192" s="49"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="49"/>
+      <c r="G192" s="49"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28">
         <f>I21</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J192" s="29">
+      <c r="J192" s="28">
         <f>J21</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K192" s="29">
+      <c r="K192" s="28">
         <f>K21</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L192" s="29">
+      <c r="L192" s="28">
         <f>L21</f>
         <v>80550</v>
       </c>
-      <c r="N192" s="29"/>
-    </row>
-    <row r="194" spans="2:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="B194" s="45" t="s">
+      <c r="N192" s="28"/>
+    </row>
+    <row r="194" spans="2:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="B194" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B195" s="45"/>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B195" s="44"/>
       <c r="C195" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C196" s="45" t="s">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C196" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B197" s="45" t="s">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C198" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B200" s="55" t="s">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C200" s="43"/>
-      <c r="D200" s="43"/>
-      <c r="E200" s="43"/>
-      <c r="F200" s="43"/>
-      <c r="G200" s="43"/>
-      <c r="H200" s="25" t="s">
+      <c r="C200" s="42"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I200" s="25" t="s">
+      <c r="I200" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J200" s="25" t="s">
+      <c r="J200" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K200" s="25" t="s">
+      <c r="K200" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L200" s="25" t="s">
+      <c r="L200" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N200" s="25"/>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C201" s="8"/>
-      <c r="D201" s="58" t="s">
+      <c r="N200" s="24"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C201" s="7"/>
+      <c r="D201" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="I201" s="27">
+      <c r="I201" s="26">
         <f>I192</f>
         <v>65062.203329992713</v>
       </c>
-      <c r="J201" s="27">
+      <c r="J201" s="26">
         <f>J192</f>
         <v>84846.667729591834</v>
       </c>
-      <c r="K201" s="27">
+      <c r="K201" s="26">
         <f>K192</f>
         <v>87772.767857142855</v>
       </c>
-      <c r="L201" s="27">
+      <c r="L201" s="26">
         <f>L192</f>
         <v>80550</v>
       </c>
-      <c r="N201" s="27"/>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C202" s="8"/>
-      <c r="D202" s="59" t="s">
+      <c r="N201" s="26"/>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C202" s="7"/>
+      <c r="D202" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="30">
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="29">
         <f>-I203*I204</f>
         <v>-22921.815698537081</v>
       </c>
-      <c r="J202" s="30">
-        <f t="shared" ref="J202:L202" si="5">-J203*J204</f>
+      <c r="J202" s="29">
+        <f t="shared" ref="J202:L202" si="11">-J203*J204</f>
         <v>-13891.433582361527</v>
       </c>
-      <c r="K202" s="30">
-        <f t="shared" si="5"/>
+      <c r="K202" s="29">
+        <f t="shared" si="11"/>
         <v>-7885.905612244901</v>
       </c>
-      <c r="L202" s="30">
-        <f t="shared" si="5"/>
+      <c r="L202" s="29">
+        <f t="shared" si="11"/>
         <v>-3535.7142857142885</v>
       </c>
-      <c r="N202" s="30"/>
-    </row>
-    <row r="203" spans="2:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C203" s="8"/>
-      <c r="D203" s="45"/>
-      <c r="E203" s="9" t="s">
+      <c r="N202" s="29"/>
+    </row>
+    <row r="203" spans="2:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C203" s="7"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="32">
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="31">
         <f>H178</f>
         <v>115766.74595220748</v>
       </c>
-      <c r="J203" s="32">
+      <c r="J203" s="31">
         <f>I178</f>
         <v>70158.755466472358</v>
       </c>
-      <c r="K203" s="32">
+      <c r="K203" s="31">
         <f>J178</f>
         <v>39827.806122448994</v>
       </c>
-      <c r="L203" s="32">
+      <c r="L203" s="31">
         <f>K178</f>
         <v>17857.14285714287</v>
       </c>
-      <c r="N203" s="32"/>
-    </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C204" s="8"/>
-      <c r="D204" s="45"/>
-      <c r="E204" s="9" t="s">
+      <c r="N203" s="31"/>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C204" s="7"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="35">
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="34">
         <v>0.19800000000000001</v>
       </c>
-      <c r="J204" s="35">
+      <c r="J204" s="34">
         <v>0.19800000000000001</v>
       </c>
-      <c r="K204" s="35">
+      <c r="K204" s="34">
         <v>0.19800000000000001</v>
       </c>
-      <c r="L204" s="35">
+      <c r="L204" s="34">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N204" s="35"/>
-    </row>
-    <row r="205" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C205" s="50" t="s">
+      <c r="N204" s="34"/>
+    </row>
+    <row r="205" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C205" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D205" s="50"/>
-      <c r="E205" s="50"/>
-      <c r="F205" s="50"/>
-      <c r="G205" s="50"/>
-      <c r="H205" s="29"/>
-      <c r="I205" s="29">
+      <c r="D205" s="49"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="49"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28">
         <f>I201+I202</f>
         <v>42140.387631455633</v>
       </c>
-      <c r="J205" s="29">
-        <f t="shared" ref="J205:L205" si="6">J201+J202</f>
+      <c r="J205" s="28">
+        <f t="shared" ref="J205:L205" si="12">J201+J202</f>
         <v>70955.234147230309</v>
       </c>
-      <c r="K205" s="29">
-        <f t="shared" si="6"/>
+      <c r="K205" s="28">
+        <f t="shared" si="12"/>
         <v>79886.862244897959</v>
       </c>
-      <c r="L205" s="29">
-        <f t="shared" si="6"/>
+      <c r="L205" s="28">
+        <f t="shared" si="12"/>
         <v>77014.28571428571</v>
       </c>
-      <c r="N205" s="29"/>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B207" s="55" t="s">
+      <c r="N205" s="28"/>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B207" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C207" s="43"/>
-      <c r="D207" s="43"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="33">
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="32">
         <v>0</v>
       </c>
-      <c r="I207" s="33">
+      <c r="I207" s="32">
         <v>1</v>
       </c>
-      <c r="J207" s="33">
+      <c r="J207" s="32">
         <v>2</v>
       </c>
-      <c r="K207" s="33">
+      <c r="K207" s="32">
         <v>3</v>
       </c>
-      <c r="L207" s="33">
+      <c r="L207" s="32">
         <v>4</v>
       </c>
-      <c r="N207" s="33"/>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N207" s="32"/>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D208" s="5" t="s">
         <v>38</v>
       </c>
@@ -8146,146 +9399,146 @@
         <v>77014.28571428571</v>
       </c>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D209" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H209" s="34">
+      <c r="H209" s="33">
         <v>1</v>
       </c>
-      <c r="I209" s="34">
+      <c r="I209" s="33">
         <f>(1+19.8%)^I207</f>
         <v>1.198</v>
       </c>
-      <c r="J209" s="34">
+      <c r="J209" s="33">
         <f>(1+19.8%)^J207</f>
         <v>1.4352039999999999</v>
       </c>
-      <c r="K209" s="34">
+      <c r="K209" s="33">
         <f>(1+19.8%)^K207</f>
         <v>1.7193743919999998</v>
       </c>
-      <c r="L209" s="34">
+      <c r="L209" s="33">
         <f>(1+19.8%)^L207</f>
         <v>2.0598105216159999</v>
       </c>
-      <c r="N209" s="34"/>
-    </row>
-    <row r="210" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C210" s="50" t="s">
+      <c r="N209" s="33"/>
+    </row>
+    <row r="210" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C210" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D210" s="50"/>
-      <c r="E210" s="50"/>
-      <c r="F210" s="50"/>
-      <c r="G210" s="50"/>
-      <c r="H210" s="29">
+      <c r="D210" s="49"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="49"/>
+      <c r="H210" s="28">
         <f>H208/H209</f>
         <v>0</v>
       </c>
-      <c r="I210" s="29">
+      <c r="I210" s="28">
         <f>I208/I209</f>
         <v>35175.61571907816</v>
       </c>
-      <c r="J210" s="29">
+      <c r="J210" s="28">
         <f>J208/J209</f>
         <v>49439.127919954451</v>
       </c>
-      <c r="K210" s="29">
+      <c r="K210" s="28">
         <f>K208/K209</f>
         <v>46462.749833078808</v>
       </c>
-      <c r="L210" s="29">
+      <c r="L210" s="28">
         <f>L208/L209</f>
         <v>37389.014623473748</v>
       </c>
-      <c r="N210" s="29"/>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B212" s="51" t="s">
+      <c r="N210" s="28"/>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B212" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C212" s="45"/>
-      <c r="D212" s="45"/>
-      <c r="E212" s="45"/>
-      <c r="F212" s="45"/>
-      <c r="G212" s="45"/>
-      <c r="H212" s="30"/>
-      <c r="K212" s="60">
+      <c r="C212" s="44"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="44"/>
+      <c r="F212" s="44"/>
+      <c r="G212" s="44"/>
+      <c r="H212" s="29"/>
+      <c r="K212" s="59">
         <f>SUM(I210:L210)+H178</f>
         <v>284233.25404779264</v>
       </c>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B213" s="51" t="s">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B213" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C213" s="45"/>
-      <c r="D213" s="45"/>
-      <c r="E213" s="45"/>
-      <c r="G213" s="45"/>
-      <c r="H213" s="30"/>
-      <c r="K213" s="27">
+      <c r="C213" s="44"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="44"/>
+      <c r="G213" s="44"/>
+      <c r="H213" s="29"/>
+      <c r="K213" s="26">
         <f>H177+K212</f>
         <v>568466.50809558516</v>
       </c>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B215" s="55" t="s">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B215" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C215" s="43"/>
-      <c r="D215" s="43"/>
-      <c r="E215" s="43"/>
-      <c r="F215" s="43"/>
-      <c r="G215" s="43"/>
-      <c r="H215" s="25" t="s">
+      <c r="C215" s="42"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
+      <c r="G215" s="42"/>
+      <c r="H215" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I215" s="25" t="s">
+      <c r="I215" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J215" s="25" t="s">
+      <c r="J215" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K215" s="25" t="s">
+      <c r="K215" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L215" s="25" t="s">
+      <c r="L215" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N215" s="25"/>
-    </row>
-    <row r="216" spans="2:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C216" s="8"/>
-      <c r="D216" s="58" t="s">
+      <c r="N215" s="24"/>
+    </row>
+    <row r="216" spans="2:15" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C216" s="7"/>
+      <c r="D216" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="I216" s="27">
+      <c r="I216" s="26">
         <f>I217+I218</f>
         <v>77000</v>
       </c>
-      <c r="J216" s="27">
+      <c r="J216" s="26">
         <f>J217+J218</f>
         <v>94500</v>
       </c>
-      <c r="K216" s="27">
+      <c r="K216" s="26">
         <f>K217+K218</f>
         <v>94500</v>
       </c>
-      <c r="L216" s="27">
+      <c r="L216" s="26">
         <f>L217+L218</f>
         <v>77000</v>
       </c>
-      <c r="N216" s="27"/>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E217" s="9" t="s">
+      <c r="N216" s="26"/>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E217" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="27"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="26"/>
       <c r="I217" s="6">
         <f>I15</f>
         <v>110000</v>
@@ -8303,185 +9556,188 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C218" s="45"/>
-      <c r="D218" s="45"/>
-      <c r="E218" s="56" t="s">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C218" s="44"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F218" s="45"/>
-      <c r="G218" s="45"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32">
+      <c r="F218" s="44"/>
+      <c r="G218" s="44"/>
+      <c r="H218" s="31"/>
+      <c r="I218" s="31">
         <f>-I217*0.3</f>
         <v>-33000</v>
       </c>
-      <c r="J218" s="32">
+      <c r="J218" s="31">
         <f>-J217*0.3</f>
         <v>-40500</v>
       </c>
-      <c r="K218" s="32">
+      <c r="K218" s="31">
         <f>-K217*0.3</f>
         <v>-40500</v>
       </c>
-      <c r="L218" s="32">
+      <c r="L218" s="31">
         <f>-L217*0.3</f>
         <v>-33000</v>
       </c>
-      <c r="N218" s="32" t="s">
+      <c r="N218" s="31" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C219" s="8"/>
-      <c r="D219" s="59" t="s">
+      <c r="O218" s="77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C219" s="7"/>
+      <c r="D219" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="27"/>
-      <c r="I219" s="30">
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="26"/>
+      <c r="I219" s="29">
         <f>-I220*I221</f>
         <v>-48000</v>
       </c>
-      <c r="J219" s="30">
+      <c r="J219" s="29">
         <f>-J220*J221</f>
         <v>-36000</v>
       </c>
-      <c r="K219" s="30">
+      <c r="K219" s="29">
         <f>-K220*K221</f>
         <v>-24000</v>
       </c>
-      <c r="L219" s="30">
+      <c r="L219" s="29">
         <f>-L220*L221</f>
         <v>-12000</v>
       </c>
-      <c r="N219" s="30"/>
-    </row>
-    <row r="220" spans="2:14" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="C220" s="8"/>
-      <c r="D220" s="45"/>
+      <c r="N219" s="29"/>
+    </row>
+    <row r="220" spans="2:15" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="C220" s="7"/>
+      <c r="D220" s="44"/>
       <c r="E220" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="32">
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="26"/>
+      <c r="I220" s="31">
         <f>H176</f>
         <v>400000</v>
       </c>
-      <c r="J220" s="32">
+      <c r="J220" s="31">
         <f>I176</f>
         <v>300000</v>
       </c>
-      <c r="K220" s="32">
+      <c r="K220" s="31">
         <f>J176</f>
         <v>200000</v>
       </c>
-      <c r="L220" s="32">
+      <c r="L220" s="31">
         <f>K176</f>
         <v>100000</v>
       </c>
-      <c r="N220" s="32"/>
-    </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C221" s="8"/>
-      <c r="D221" s="45"/>
+      <c r="N220" s="31"/>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C221" s="7"/>
+      <c r="D221" s="44"/>
       <c r="E221" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="35">
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="26"/>
+      <c r="I221" s="34">
         <v>0.12</v>
       </c>
-      <c r="J221" s="35">
+      <c r="J221" s="34">
         <v>0.12</v>
       </c>
-      <c r="K221" s="35">
+      <c r="K221" s="34">
         <v>0.12</v>
       </c>
-      <c r="L221" s="35">
+      <c r="L221" s="34">
         <v>0.12</v>
       </c>
-      <c r="N221" s="35"/>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C222" s="8"/>
-      <c r="D222" s="51" t="s">
+      <c r="N221" s="34"/>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C222" s="7"/>
+      <c r="D222" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="27"/>
-      <c r="I222" s="35"/>
-      <c r="J222" s="35"/>
-      <c r="K222" s="35"/>
-      <c r="L222" s="30">
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="26"/>
+      <c r="I222" s="34"/>
+      <c r="J222" s="34"/>
+      <c r="K222" s="34"/>
+      <c r="L222" s="29">
         <v>7000</v>
       </c>
-      <c r="N222" s="32" t="s">
+      <c r="N222" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C223" s="50" t="s">
+    <row r="223" spans="2:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C223" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D223" s="50"/>
-      <c r="E223" s="50"/>
-      <c r="F223" s="50"/>
-      <c r="G223" s="50"/>
-      <c r="H223" s="29"/>
-      <c r="I223" s="29">
+      <c r="D223" s="49"/>
+      <c r="E223" s="49"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="49"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="28">
         <f>I216+I219</f>
         <v>29000</v>
       </c>
-      <c r="J223" s="29">
+      <c r="J223" s="28">
         <f>J216+J219</f>
         <v>58500</v>
       </c>
-      <c r="K223" s="29">
+      <c r="K223" s="28">
         <f>K216+K219</f>
         <v>70500</v>
       </c>
-      <c r="L223" s="29">
+      <c r="L223" s="28">
         <f>L216+L219+L222</f>
         <v>72000</v>
       </c>
-      <c r="N223" s="67" t="s">
+      <c r="N223" s="66" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B225" s="55" t="s">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B225" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C225" s="43"/>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="43"/>
-      <c r="H225" s="33">
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
+      <c r="G225" s="42"/>
+      <c r="H225" s="32">
         <v>0</v>
       </c>
-      <c r="I225" s="33">
+      <c r="I225" s="32">
         <v>1</v>
       </c>
-      <c r="J225" s="33">
+      <c r="J225" s="32">
         <v>2</v>
       </c>
-      <c r="K225" s="33">
+      <c r="K225" s="32">
         <v>3</v>
       </c>
-      <c r="L225" s="33">
+      <c r="L225" s="32">
         <v>4</v>
       </c>
-      <c r="N225" s="33"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N225" s="32"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D226" s="5" t="s">
         <v>38</v>
       </c>
@@ -8506,149 +9762,151 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D227" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H227" s="34">
+      <c r="H227" s="33">
         <v>1</v>
       </c>
-      <c r="I227" s="34">
+      <c r="I227" s="33">
         <f>(1+12%)^I225</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="J227" s="34">
+      <c r="J227" s="33">
         <f>(1+12%)^J225</f>
         <v>1.2544000000000002</v>
       </c>
-      <c r="K227" s="34">
+      <c r="K227" s="33">
         <f>(1+12%)^K225</f>
         <v>1.4049280000000004</v>
       </c>
-      <c r="L227" s="34">
+      <c r="L227" s="33">
         <f>(1+12%)^L225</f>
         <v>1.5735193600000004</v>
       </c>
-      <c r="N227" s="34"/>
-    </row>
-    <row r="228" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C228" s="50" t="s">
+      <c r="N227" s="33"/>
+    </row>
+    <row r="228" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50"/>
-      <c r="F228" s="50"/>
-      <c r="G228" s="50"/>
-      <c r="H228" s="29">
+      <c r="D228" s="49"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="49"/>
+      <c r="G228" s="49"/>
+      <c r="H228" s="28">
         <f>H226/H227</f>
         <v>0</v>
       </c>
-      <c r="I228" s="29">
+      <c r="I228" s="28">
         <f>I226/I227</f>
         <v>25892.857142857141</v>
       </c>
-      <c r="J228" s="29">
+      <c r="J228" s="28">
         <f>J226/J227</f>
         <v>46635.841836734689</v>
       </c>
-      <c r="K228" s="29">
+      <c r="K228" s="28">
         <f>K226/K227</f>
         <v>50180.50747084547</v>
       </c>
-      <c r="L228" s="29">
+      <c r="L228" s="28">
         <f>L226/L227</f>
         <v>45757.301645147847</v>
       </c>
-      <c r="N228" s="29"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B230" s="51" t="s">
+      <c r="N228" s="28"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B230" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="45"/>
-      <c r="D230" s="45"/>
-      <c r="E230" s="45"/>
-      <c r="F230" s="45"/>
-      <c r="G230" s="30">
+      <c r="C230" s="44"/>
+      <c r="D230" s="44"/>
+      <c r="E230" s="44"/>
+      <c r="F230" s="44"/>
+      <c r="G230" s="29">
         <f>SUM(I228:L228)</f>
         <v>168466.50809558516</v>
       </c>
-      <c r="H230" s="30"/>
-      <c r="K230" s="57"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B231" s="51" t="s">
+      <c r="H230" s="29"/>
+      <c r="K230" s="56"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B231" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C231" s="45"/>
-      <c r="D231" s="45"/>
-      <c r="E231" s="45"/>
-      <c r="F231" s="45"/>
-      <c r="G231" s="45"/>
-      <c r="H231" s="30"/>
-      <c r="K231" s="27">
+      <c r="C231" s="44"/>
+      <c r="D231" s="44"/>
+      <c r="E231" s="44"/>
+      <c r="F231" s="44"/>
+      <c r="G231" s="44"/>
+      <c r="H231" s="29"/>
+      <c r="K231" s="26">
         <f>H176+G230</f>
         <v>568466.50809558516</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="H232" s="61"/>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H232" s="60"/>
       <c r="I232" s="5"/>
-      <c r="J232" s="5"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="H233" s="61"/>
+      <c r="J232" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H233" s="60"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
     </row>
-    <row r="234" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="68" t="s">
+    <row r="234" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B234" s="68"/>
-      <c r="C234" s="68"/>
-      <c r="D234" s="68"/>
-      <c r="E234" s="68"/>
-      <c r="F234" s="68"/>
-      <c r="G234" s="68"/>
-      <c r="H234" s="71"/>
-      <c r="I234" s="71"/>
-      <c r="J234" s="71"/>
-      <c r="K234" s="71"/>
-      <c r="L234" s="71"/>
-      <c r="M234" s="68"/>
-      <c r="N234" s="71"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B235" s="8"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B236" s="42" t="s">
+      <c r="B234" s="67"/>
+      <c r="C234" s="67"/>
+      <c r="D234" s="67"/>
+      <c r="E234" s="67"/>
+      <c r="F234" s="67"/>
+      <c r="G234" s="67"/>
+      <c r="H234" s="70"/>
+      <c r="I234" s="70"/>
+      <c r="J234" s="70"/>
+      <c r="K234" s="70"/>
+      <c r="L234" s="70"/>
+      <c r="M234" s="67"/>
+      <c r="N234" s="70"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B235" s="7"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B236" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C236" s="43"/>
-      <c r="D236" s="43"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="43"/>
-      <c r="G236" s="43"/>
-      <c r="H236" s="25" t="s">
+      <c r="C236" s="42"/>
+      <c r="D236" s="42"/>
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I236" s="25" t="s">
+      <c r="I236" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J236" s="25" t="s">
+      <c r="J236" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K236" s="25" t="s">
+      <c r="K236" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L236" s="25" t="s">
+      <c r="L236" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N236" s="25"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N236" s="24"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C237" s="5" t="s">
         <v>92</v>
       </c>
@@ -8673,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C238" s="5" t="s">
         <v>93</v>
       </c>
@@ -8697,65 +9955,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B239" s="45"/>
-      <c r="C239" s="46" t="s">
+    <row r="239" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B239" s="44"/>
+      <c r="C239" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D239" s="46"/>
-      <c r="E239" s="46"/>
-      <c r="F239" s="46"/>
-      <c r="G239" s="46"/>
-      <c r="H239" s="26">
+      <c r="D239" s="45"/>
+      <c r="E239" s="45"/>
+      <c r="F239" s="45"/>
+      <c r="G239" s="45"/>
+      <c r="H239" s="25">
         <f>H7</f>
         <v>115766.74595220748</v>
       </c>
-      <c r="I239" s="26">
+      <c r="I239" s="25">
         <f>I7</f>
         <v>70158.755466472358</v>
       </c>
-      <c r="J239" s="26">
+      <c r="J239" s="25">
         <f>J7</f>
         <v>39827.806122448994</v>
       </c>
-      <c r="K239" s="26">
+      <c r="K239" s="25">
         <f>K7</f>
         <v>17857.14285714287</v>
       </c>
-      <c r="L239" s="26">
+      <c r="L239" s="25">
         <f>L7</f>
         <v>0</v>
       </c>
-      <c r="N239" s="26"/>
-    </row>
-    <row r="240" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B241" s="42" t="s">
+      <c r="N239" s="25"/>
+    </row>
+    <row r="240" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B241" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C241" s="43"/>
-      <c r="D241" s="43"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="43"/>
-      <c r="G241" s="43"/>
-      <c r="H241" s="25" t="s">
+      <c r="C241" s="42"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
+      <c r="G241" s="42"/>
+      <c r="H241" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I241" s="25" t="s">
+      <c r="I241" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J241" s="25" t="s">
+      <c r="J241" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K241" s="25" t="s">
+      <c r="K241" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L241" s="25" t="s">
+      <c r="L241" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N241" s="25"/>
-    </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N241" s="24"/>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C242" s="5" t="s">
         <v>48</v>
       </c>
@@ -8780,118 +10038,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B243" s="45"/>
-      <c r="C243" s="46" t="s">
+    <row r="243" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B243" s="44"/>
+      <c r="C243" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="46"/>
-      <c r="E243" s="46"/>
-      <c r="F243" s="46"/>
-      <c r="G243" s="46"/>
-      <c r="H243" s="36">
+      <c r="D243" s="45"/>
+      <c r="E243" s="45"/>
+      <c r="F243" s="45"/>
+      <c r="G243" s="45"/>
+      <c r="H243" s="35">
         <f>H251</f>
         <v>568466.50809558504</v>
       </c>
-      <c r="I243" s="36">
+      <c r="I243" s="35">
         <f>I259</f>
         <v>459682.48906705528</v>
       </c>
-      <c r="J243" s="36">
+      <c r="J243" s="35">
         <f>J267</f>
         <v>320344.38775510201</v>
       </c>
-      <c r="K243" s="36">
+      <c r="K243" s="35">
         <f>K275</f>
         <v>164285.71428571426</v>
       </c>
-      <c r="L243" s="36">
+      <c r="L243" s="35">
         <f>L283</f>
         <v>0</v>
       </c>
-      <c r="N243" s="36"/>
-    </row>
-    <row r="244" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B244" s="45"/>
-      <c r="C244" s="51"/>
-      <c r="D244" s="45"/>
-      <c r="E244" s="45"/>
-      <c r="F244" s="45"/>
-      <c r="G244" s="45"/>
-      <c r="H244" s="30"/>
-      <c r="I244" s="30"/>
-      <c r="J244" s="30"/>
-      <c r="K244" s="30"/>
-      <c r="L244" s="30"/>
-      <c r="N244" s="30"/>
-    </row>
-    <row r="245" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B245" s="45"/>
-      <c r="C245" s="51"/>
-      <c r="D245" s="45"/>
-      <c r="E245" s="45"/>
-      <c r="F245" s="45"/>
-      <c r="G245" s="45"/>
-      <c r="H245" s="30"/>
-      <c r="I245" s="30"/>
-      <c r="J245" s="30"/>
-      <c r="K245" s="30"/>
-      <c r="L245" s="30"/>
-      <c r="N245" s="30"/>
-    </row>
-    <row r="246" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B246" s="45"/>
-      <c r="C246" s="51"/>
-      <c r="D246" s="45"/>
-      <c r="E246" s="45"/>
-      <c r="F246" s="45"/>
-      <c r="G246" s="45"/>
-      <c r="H246" s="30"/>
-      <c r="I246" s="30"/>
-      <c r="J246" s="30"/>
-      <c r="K246" s="30"/>
-      <c r="L246" s="30"/>
-      <c r="N246" s="30"/>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C247" s="62" t="s">
+      <c r="N243" s="35"/>
+    </row>
+    <row r="244" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="44"/>
+      <c r="C244" s="50"/>
+      <c r="D244" s="44"/>
+      <c r="E244" s="44"/>
+      <c r="F244" s="44"/>
+      <c r="G244" s="44"/>
+      <c r="H244" s="29"/>
+      <c r="I244" s="29"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="29"/>
+      <c r="L244" s="29"/>
+      <c r="N244" s="29"/>
+    </row>
+    <row r="245" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="44"/>
+      <c r="C245" s="50"/>
+      <c r="D245" s="44"/>
+      <c r="E245" s="44"/>
+      <c r="F245" s="44"/>
+      <c r="G245" s="44"/>
+      <c r="H245" s="29"/>
+      <c r="I245" s="29"/>
+      <c r="J245" s="29"/>
+      <c r="K245" s="29"/>
+      <c r="L245" s="29"/>
+      <c r="N245" s="29"/>
+    </row>
+    <row r="246" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="44"/>
+      <c r="C246" s="50"/>
+      <c r="D246" s="44"/>
+      <c r="E246" s="44"/>
+      <c r="F246" s="44"/>
+      <c r="G246" s="44"/>
+      <c r="H246" s="29"/>
+      <c r="I246" s="29"/>
+      <c r="J246" s="29"/>
+      <c r="K246" s="29"/>
+      <c r="L246" s="29"/>
+      <c r="N246" s="29"/>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C247" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D247" s="62"/>
-      <c r="E247" s="62"/>
-      <c r="F247" s="62"/>
-      <c r="G247" s="62"/>
-      <c r="H247" s="37">
+      <c r="D247" s="61"/>
+      <c r="E247" s="61"/>
+      <c r="F247" s="61"/>
+      <c r="G247" s="61"/>
+      <c r="H247" s="36">
         <v>0</v>
       </c>
-      <c r="I247" s="37">
+      <c r="I247" s="36">
         <v>1</v>
       </c>
-      <c r="J247" s="37">
+      <c r="J247" s="36">
         <v>2</v>
       </c>
-      <c r="K247" s="37">
+      <c r="K247" s="36">
         <v>3</v>
       </c>
-      <c r="L247" s="37">
+      <c r="L247" s="36">
         <v>4</v>
       </c>
-      <c r="N247" s="37"/>
-    </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N247" s="36"/>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D248" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I248" s="6">
-        <f t="shared" ref="I248:L248" si="7">I95</f>
+        <f t="shared" ref="I248:K248" si="13">I95</f>
         <v>177000</v>
       </c>
       <c r="J248" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>194500</v>
       </c>
       <c r="K248" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>194500</v>
       </c>
       <c r="L248" s="6">
@@ -8899,104 +10157,104 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D249" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H249" s="34"/>
-      <c r="I249" s="34">
+      <c r="H249" s="33"/>
+      <c r="I249" s="33">
         <f>(1+12%)^I247</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="J249" s="34">
+      <c r="J249" s="33">
         <f>(1+12%)^J247</f>
         <v>1.2544000000000002</v>
       </c>
-      <c r="K249" s="34">
+      <c r="K249" s="33">
         <f>(1+12%)^K247</f>
         <v>1.4049280000000004</v>
       </c>
-      <c r="L249" s="34">
+      <c r="L249" s="33">
         <f>(1+12%)^L247</f>
         <v>1.5735193600000004</v>
       </c>
-      <c r="N249" s="34"/>
-    </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C250" s="53" t="s">
+      <c r="N249" s="33"/>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C250" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D250" s="52"/>
-      <c r="E250" s="52"/>
-      <c r="F250" s="52"/>
-      <c r="G250" s="52"/>
-      <c r="H250" s="38"/>
-      <c r="I250" s="38">
+      <c r="D250" s="51"/>
+      <c r="E250" s="51"/>
+      <c r="F250" s="51"/>
+      <c r="G250" s="51"/>
+      <c r="H250" s="37"/>
+      <c r="I250" s="37">
         <f>I248/I249</f>
         <v>158035.71428571426</v>
       </c>
-      <c r="J250" s="38">
+      <c r="J250" s="37">
         <f>J248/J249</f>
         <v>155054.20918367343</v>
       </c>
-      <c r="K250" s="38">
+      <c r="K250" s="37">
         <f>K248/K249</f>
         <v>138441.25819970842</v>
       </c>
-      <c r="L250" s="38">
+      <c r="L250" s="37">
         <f>L248/L249</f>
         <v>116935.32642648893</v>
       </c>
-      <c r="N250" s="38"/>
-    </row>
-    <row r="251" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C251" s="63" t="str">
+      <c r="N250" s="37"/>
+    </row>
+    <row r="251" spans="2:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C251" s="62" t="str">
         <f>C247</f>
         <v>MV at t=0</v>
       </c>
-      <c r="D251" s="46"/>
-      <c r="E251" s="46"/>
-      <c r="F251" s="46"/>
-      <c r="G251" s="46"/>
-      <c r="H251" s="36">
+      <c r="D251" s="45"/>
+      <c r="E251" s="45"/>
+      <c r="F251" s="45"/>
+      <c r="G251" s="45"/>
+      <c r="H251" s="35">
         <f>SUM(I250:L250)</f>
         <v>568466.50809558504</v>
       </c>
-      <c r="I251" s="26"/>
-      <c r="J251" s="26"/>
-      <c r="K251" s="26"/>
-      <c r="L251" s="26"/>
-      <c r="N251" s="26"/>
-    </row>
-    <row r="252" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C255" s="62" t="s">
+      <c r="I251" s="25"/>
+      <c r="J251" s="25"/>
+      <c r="K251" s="25"/>
+      <c r="L251" s="25"/>
+      <c r="N251" s="25"/>
+    </row>
+    <row r="252" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C255" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D255" s="62"/>
-      <c r="E255" s="62"/>
-      <c r="F255" s="62"/>
-      <c r="G255" s="62"/>
-      <c r="H255" s="37">
+      <c r="D255" s="61"/>
+      <c r="E255" s="61"/>
+      <c r="F255" s="61"/>
+      <c r="G255" s="61"/>
+      <c r="H255" s="36">
         <v>0</v>
       </c>
-      <c r="I255" s="37">
+      <c r="I255" s="36">
         <v>1</v>
       </c>
-      <c r="J255" s="37">
+      <c r="J255" s="36">
         <v>2</v>
       </c>
-      <c r="K255" s="37">
+      <c r="K255" s="36">
         <v>3</v>
       </c>
-      <c r="L255" s="37">
+      <c r="L255" s="36">
         <v>4</v>
       </c>
-      <c r="N255" s="37"/>
-    </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N255" s="36"/>
+    </row>
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D256" s="5" t="s">
         <v>22</v>
       </c>
@@ -9013,98 +10271,98 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="257" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="257" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D257" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H257" s="34"/>
-      <c r="I257" s="34"/>
-      <c r="J257" s="34">
+      <c r="H257" s="33"/>
+      <c r="I257" s="33"/>
+      <c r="J257" s="33">
         <f>I249</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="K257" s="34">
+      <c r="K257" s="33">
         <f>J249</f>
         <v>1.2544000000000002</v>
       </c>
-      <c r="L257" s="34">
+      <c r="L257" s="33">
         <f>K249</f>
         <v>1.4049280000000004</v>
       </c>
-      <c r="N257" s="34"/>
-    </row>
-    <row r="258" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C258" s="53" t="s">
+      <c r="N257" s="33"/>
+    </row>
+    <row r="258" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C258" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D258" s="52"/>
-      <c r="E258" s="52"/>
-      <c r="F258" s="52"/>
-      <c r="G258" s="52"/>
-      <c r="H258" s="38"/>
-      <c r="I258" s="38"/>
-      <c r="J258" s="38">
+      <c r="D258" s="51"/>
+      <c r="E258" s="51"/>
+      <c r="F258" s="51"/>
+      <c r="G258" s="51"/>
+      <c r="H258" s="37"/>
+      <c r="I258" s="37"/>
+      <c r="J258" s="37">
         <f>J256/J257</f>
         <v>173660.71428571426</v>
       </c>
-      <c r="K258" s="38">
+      <c r="K258" s="37">
         <f>K256/K257</f>
         <v>155054.20918367343</v>
       </c>
-      <c r="L258" s="38">
+      <c r="L258" s="37">
         <f>L256/L257</f>
         <v>130967.56559766761</v>
       </c>
-      <c r="N258" s="38"/>
-    </row>
-    <row r="259" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C259" s="63" t="str">
+      <c r="N258" s="37"/>
+    </row>
+    <row r="259" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C259" s="62" t="str">
         <f>C255</f>
         <v>MV at t=1</v>
       </c>
-      <c r="D259" s="46"/>
-      <c r="E259" s="46"/>
-      <c r="F259" s="46"/>
-      <c r="G259" s="46"/>
-      <c r="H259" s="26"/>
-      <c r="I259" s="36">
+      <c r="D259" s="45"/>
+      <c r="E259" s="45"/>
+      <c r="F259" s="45"/>
+      <c r="G259" s="45"/>
+      <c r="H259" s="25"/>
+      <c r="I259" s="35">
         <f>SUM(I258:L258)</f>
         <v>459682.48906705528</v>
       </c>
-      <c r="J259" s="26"/>
-      <c r="K259" s="26"/>
-      <c r="L259" s="26"/>
-      <c r="N259" s="26"/>
-    </row>
-    <row r="260" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C263" s="64" t="s">
+      <c r="J259" s="25"/>
+      <c r="K259" s="25"/>
+      <c r="L259" s="25"/>
+      <c r="N259" s="25"/>
+    </row>
+    <row r="260" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C263" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D263" s="64"/>
-      <c r="E263" s="64"/>
-      <c r="F263" s="64"/>
-      <c r="G263" s="64"/>
-      <c r="H263" s="39">
+      <c r="D263" s="63"/>
+      <c r="E263" s="63"/>
+      <c r="F263" s="63"/>
+      <c r="G263" s="63"/>
+      <c r="H263" s="38">
         <v>0</v>
       </c>
-      <c r="I263" s="39">
+      <c r="I263" s="38">
         <v>1</v>
       </c>
-      <c r="J263" s="39">
+      <c r="J263" s="38">
         <v>2</v>
       </c>
-      <c r="K263" s="39">
+      <c r="K263" s="38">
         <v>3</v>
       </c>
-      <c r="L263" s="39">
+      <c r="L263" s="38">
         <v>4</v>
       </c>
-      <c r="N263" s="39"/>
-    </row>
-    <row r="264" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N263" s="38"/>
+    </row>
+    <row r="264" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D264" s="5" t="s">
         <v>22</v>
       </c>
@@ -9117,92 +10375,92 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="265" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="265" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D265" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H265" s="34"/>
-      <c r="I265" s="34"/>
-      <c r="J265" s="34"/>
-      <c r="K265" s="34">
+      <c r="H265" s="33"/>
+      <c r="I265" s="33"/>
+      <c r="J265" s="33"/>
+      <c r="K265" s="33">
         <f>J257</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="L265" s="34">
+      <c r="L265" s="33">
         <f>K257</f>
         <v>1.2544000000000002</v>
       </c>
-      <c r="N265" s="34"/>
-    </row>
-    <row r="266" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C266" s="53" t="s">
+      <c r="N265" s="33"/>
+    </row>
+    <row r="266" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C266" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D266" s="52"/>
-      <c r="E266" s="52"/>
-      <c r="F266" s="52"/>
-      <c r="G266" s="52"/>
-      <c r="H266" s="38"/>
-      <c r="I266" s="38"/>
-      <c r="J266" s="38"/>
-      <c r="K266" s="38">
+      <c r="D266" s="51"/>
+      <c r="E266" s="51"/>
+      <c r="F266" s="51"/>
+      <c r="G266" s="51"/>
+      <c r="H266" s="37"/>
+      <c r="I266" s="37"/>
+      <c r="J266" s="37"/>
+      <c r="K266" s="37">
         <f>K264/K265</f>
         <v>173660.71428571426</v>
       </c>
-      <c r="L266" s="38">
+      <c r="L266" s="37">
         <f>L264/L265</f>
         <v>146683.67346938772</v>
       </c>
-      <c r="N266" s="38"/>
-    </row>
-    <row r="267" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C267" s="63" t="str">
+      <c r="N266" s="37"/>
+    </row>
+    <row r="267" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C267" s="62" t="str">
         <f>C263</f>
         <v>MV at t=2</v>
       </c>
-      <c r="D267" s="46"/>
-      <c r="E267" s="46"/>
-      <c r="F267" s="46"/>
-      <c r="G267" s="46"/>
-      <c r="H267" s="26"/>
-      <c r="I267" s="26"/>
-      <c r="J267" s="36">
+      <c r="D267" s="45"/>
+      <c r="E267" s="45"/>
+      <c r="F267" s="45"/>
+      <c r="G267" s="45"/>
+      <c r="H267" s="25"/>
+      <c r="I267" s="25"/>
+      <c r="J267" s="35">
         <f>SUM(I266:L266)</f>
         <v>320344.38775510201</v>
       </c>
-      <c r="K267" s="26"/>
-      <c r="L267" s="26"/>
-      <c r="N267" s="26"/>
-    </row>
-    <row r="268" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C271" s="64" t="s">
+      <c r="K267" s="25"/>
+      <c r="L267" s="25"/>
+      <c r="N267" s="25"/>
+    </row>
+    <row r="268" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C271" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D271" s="64"/>
-      <c r="E271" s="64"/>
-      <c r="F271" s="64"/>
-      <c r="G271" s="64"/>
-      <c r="H271" s="39">
+      <c r="D271" s="63"/>
+      <c r="E271" s="63"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="63"/>
+      <c r="H271" s="38">
         <v>0</v>
       </c>
-      <c r="I271" s="39">
+      <c r="I271" s="38">
         <v>1</v>
       </c>
-      <c r="J271" s="39">
+      <c r="J271" s="38">
         <v>2</v>
       </c>
-      <c r="K271" s="39">
+      <c r="K271" s="38">
         <v>3</v>
       </c>
-      <c r="L271" s="39">
+      <c r="L271" s="38">
         <v>4</v>
       </c>
-      <c r="N271" s="39"/>
-    </row>
-    <row r="272" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N271" s="38"/>
+    </row>
+    <row r="272" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D272" s="5" t="s">
         <v>22</v>
       </c>
@@ -9211,136 +10469,136 @@
         <v>184000</v>
       </c>
     </row>
-    <row r="273" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="273" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D273" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H273" s="34"/>
-      <c r="I273" s="34"/>
-      <c r="J273" s="34"/>
-      <c r="K273" s="34"/>
-      <c r="L273" s="34">
+      <c r="H273" s="33"/>
+      <c r="I273" s="33"/>
+      <c r="J273" s="33"/>
+      <c r="K273" s="33"/>
+      <c r="L273" s="33">
         <f>K265</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="N273" s="34"/>
-    </row>
-    <row r="274" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C274" s="53" t="s">
+      <c r="N273" s="33"/>
+    </row>
+    <row r="274" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C274" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D274" s="52"/>
-      <c r="E274" s="52"/>
-      <c r="F274" s="52"/>
-      <c r="G274" s="52"/>
-      <c r="H274" s="38"/>
-      <c r="I274" s="38"/>
-      <c r="J274" s="38"/>
-      <c r="K274" s="38"/>
-      <c r="L274" s="38">
+      <c r="D274" s="51"/>
+      <c r="E274" s="51"/>
+      <c r="F274" s="51"/>
+      <c r="G274" s="51"/>
+      <c r="H274" s="37"/>
+      <c r="I274" s="37"/>
+      <c r="J274" s="37"/>
+      <c r="K274" s="37"/>
+      <c r="L274" s="37">
         <f>L272/L273</f>
         <v>164285.71428571426</v>
       </c>
-      <c r="N274" s="38"/>
-    </row>
-    <row r="275" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C275" s="63" t="str">
+      <c r="N274" s="37"/>
+    </row>
+    <row r="275" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C275" s="62" t="str">
         <f>C271</f>
         <v>MV at t=3</v>
       </c>
-      <c r="D275" s="46"/>
-      <c r="E275" s="46"/>
-      <c r="F275" s="46"/>
-      <c r="G275" s="46"/>
-      <c r="H275" s="26"/>
-      <c r="I275" s="26"/>
-      <c r="J275" s="26"/>
-      <c r="K275" s="36">
+      <c r="D275" s="45"/>
+      <c r="E275" s="45"/>
+      <c r="F275" s="45"/>
+      <c r="G275" s="45"/>
+      <c r="H275" s="25"/>
+      <c r="I275" s="25"/>
+      <c r="J275" s="25"/>
+      <c r="K275" s="35">
         <f>SUM(I274:L274)</f>
         <v>164285.71428571426</v>
       </c>
-      <c r="L275" s="26"/>
-      <c r="N275" s="26"/>
-    </row>
-    <row r="276" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C279" s="64" t="s">
+      <c r="L275" s="25"/>
+      <c r="N275" s="25"/>
+    </row>
+    <row r="276" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" spans="3:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C279" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D279" s="64"/>
-      <c r="E279" s="64"/>
-      <c r="F279" s="64"/>
-      <c r="G279" s="64"/>
-      <c r="H279" s="39">
+      <c r="D279" s="63"/>
+      <c r="E279" s="63"/>
+      <c r="F279" s="63"/>
+      <c r="G279" s="63"/>
+      <c r="H279" s="38">
         <v>0</v>
       </c>
-      <c r="I279" s="39">
+      <c r="I279" s="38">
         <v>1</v>
       </c>
-      <c r="J279" s="39">
+      <c r="J279" s="38">
         <v>2</v>
       </c>
-      <c r="K279" s="39">
+      <c r="K279" s="38">
         <v>3</v>
       </c>
-      <c r="L279" s="39">
+      <c r="L279" s="38">
         <v>4</v>
       </c>
-      <c r="N279" s="39"/>
-    </row>
-    <row r="280" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="N279" s="38"/>
+    </row>
+    <row r="280" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D280" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="281" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D281" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H281" s="34"/>
-      <c r="I281" s="34"/>
-      <c r="J281" s="34"/>
-      <c r="K281" s="34"/>
-      <c r="L281" s="34"/>
-      <c r="N281" s="34"/>
-    </row>
-    <row r="282" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C282" s="53" t="s">
+      <c r="H281" s="33"/>
+      <c r="I281" s="33"/>
+      <c r="J281" s="33"/>
+      <c r="K281" s="33"/>
+      <c r="L281" s="33"/>
+      <c r="N281" s="33"/>
+    </row>
+    <row r="282" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C282" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D282" s="52"/>
-      <c r="E282" s="52"/>
-      <c r="F282" s="52"/>
-      <c r="G282" s="52"/>
-      <c r="H282" s="38"/>
-      <c r="I282" s="38"/>
-      <c r="J282" s="38"/>
-      <c r="K282" s="38"/>
-      <c r="L282" s="38"/>
-      <c r="N282" s="38"/>
-    </row>
-    <row r="283" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C283" s="63" t="str">
+      <c r="D282" s="51"/>
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="51"/>
+      <c r="H282" s="37"/>
+      <c r="I282" s="37"/>
+      <c r="J282" s="37"/>
+      <c r="K282" s="37"/>
+      <c r="L282" s="37"/>
+      <c r="N282" s="37"/>
+    </row>
+    <row r="283" spans="3:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C283" s="62" t="str">
         <f>C279</f>
         <v>MV at t=4</v>
       </c>
-      <c r="D283" s="46"/>
-      <c r="E283" s="46"/>
-      <c r="F283" s="46"/>
-      <c r="G283" s="46"/>
-      <c r="H283" s="26"/>
-      <c r="I283" s="26"/>
-      <c r="J283" s="26"/>
-      <c r="K283" s="26"/>
-      <c r="L283" s="36">
+      <c r="D283" s="45"/>
+      <c r="E283" s="45"/>
+      <c r="F283" s="45"/>
+      <c r="G283" s="45"/>
+      <c r="H283" s="25"/>
+      <c r="I283" s="25"/>
+      <c r="J283" s="25"/>
+      <c r="K283" s="25"/>
+      <c r="L283" s="35">
         <f>SUM(I282:L282)</f>
         <v>0</v>
       </c>
-      <c r="N283" s="36"/>
-    </row>
-    <row r="284" spans="3:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="N283" s="35"/>
+    </row>
+    <row r="284" spans="3:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C48:L48"/>
@@ -9361,5 +10619,6 @@
     <brk id="232" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>